--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH200"/>
+  <dimension ref="A1:AH203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19471,7 +19471,9 @@
         <v>409.9500000000001</v>
       </c>
       <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>397.9952941176471</v>
+      </c>
       <c r="T200" t="n">
         <v>395.9033333333333</v>
       </c>
@@ -19515,6 +19517,330 @@
         <v>346.98</v>
       </c>
       <c r="AH200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>431.5266666666667</v>
+      </c>
+      <c r="C201" t="n">
+        <v>447.2166666666667</v>
+      </c>
+      <c r="D201" t="n">
+        <v>449.3871428571428</v>
+      </c>
+      <c r="E201" t="n">
+        <v>454.5971428571429</v>
+      </c>
+      <c r="F201" t="n">
+        <v>458.2971428571428</v>
+      </c>
+      <c r="G201" t="n">
+        <v>451.54</v>
+      </c>
+      <c r="H201" t="n">
+        <v>444</v>
+      </c>
+      <c r="I201" t="n">
+        <v>439.4</v>
+      </c>
+      <c r="J201" t="n">
+        <v>433.46</v>
+      </c>
+      <c r="K201" t="n">
+        <v>433.6044444444445</v>
+      </c>
+      <c r="L201" t="n">
+        <v>429.8044444444445</v>
+      </c>
+      <c r="M201" t="n">
+        <v>434.7871428571429</v>
+      </c>
+      <c r="N201" t="n">
+        <v>438.8166666666667</v>
+      </c>
+      <c r="O201" t="n">
+        <v>427.5871428571429</v>
+      </c>
+      <c r="P201" t="n">
+        <v>428.6066666666667</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>428.18</v>
+      </c>
+      <c r="R201" t="n">
+        <v>402.585</v>
+      </c>
+      <c r="S201" t="n">
+        <v>409.0570588235294</v>
+      </c>
+      <c r="T201" t="n">
+        <v>408.6166666666667</v>
+      </c>
+      <c r="U201" t="n">
+        <v>405.8171428571428</v>
+      </c>
+      <c r="V201" t="n">
+        <v>394.89</v>
+      </c>
+      <c r="W201" t="n">
+        <v>396.29</v>
+      </c>
+      <c r="X201" t="n">
+        <v>404.06</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>409.47</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>412.07</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>406.91</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>405.7271428571429</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>391.5571428571428</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>354.49</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>361.21</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>364.9471428571428</v>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>407.11</v>
+      </c>
+      <c r="C202" t="n">
+        <v>421.7</v>
+      </c>
+      <c r="D202" t="n">
+        <v>431.8771428571428</v>
+      </c>
+      <c r="E202" t="n">
+        <v>443.1471428571429</v>
+      </c>
+      <c r="F202" t="n">
+        <v>448.1571428571429</v>
+      </c>
+      <c r="G202" t="n">
+        <v>444.31</v>
+      </c>
+      <c r="H202" t="n">
+        <v>441.14</v>
+      </c>
+      <c r="I202" t="n">
+        <v>433.18</v>
+      </c>
+      <c r="J202" t="n">
+        <v>422.11</v>
+      </c>
+      <c r="K202" t="n">
+        <v>423.4633333333333</v>
+      </c>
+      <c r="L202" t="n">
+        <v>426.2533333333333</v>
+      </c>
+      <c r="M202" t="n">
+        <v>431.3471428571429</v>
+      </c>
+      <c r="N202" t="n">
+        <v>426.72</v>
+      </c>
+      <c r="O202" t="n">
+        <v>413.3471428571429</v>
+      </c>
+      <c r="P202" t="n">
+        <v>410.3</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>401.46</v>
+      </c>
+      <c r="R202" t="n">
+        <v>382.645</v>
+      </c>
+      <c r="S202" t="n">
+        <v>393.3358823529412</v>
+      </c>
+      <c r="T202" t="n">
+        <v>397.81</v>
+      </c>
+      <c r="U202" t="n">
+        <v>395.6371428571428</v>
+      </c>
+      <c r="V202" t="n">
+        <v>396.57</v>
+      </c>
+      <c r="W202" t="n">
+        <v>400.01</v>
+      </c>
+      <c r="X202" t="n">
+        <v>402.8</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>403.15</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>396.56</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>392.8</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>387.7271428571429</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>381.7671428571429</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>367.13</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>361.14</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>358.88</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>351.4971428571428</v>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:18:03+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>405.2033333333333</v>
+      </c>
+      <c r="C203" t="n">
+        <v>427.4433333333333</v>
+      </c>
+      <c r="D203" t="n">
+        <v>437.2271428571429</v>
+      </c>
+      <c r="E203" t="n">
+        <v>450.6771428571428</v>
+      </c>
+      <c r="F203" t="n">
+        <v>458.3171428571428</v>
+      </c>
+      <c r="G203" t="n">
+        <v>447.48</v>
+      </c>
+      <c r="H203" t="n">
+        <v>447</v>
+      </c>
+      <c r="I203" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="J203" t="n">
+        <v>423.2</v>
+      </c>
+      <c r="K203" t="n">
+        <v>422.4588888888889</v>
+      </c>
+      <c r="L203" t="n">
+        <v>426.7488888888889</v>
+      </c>
+      <c r="M203" t="n">
+        <v>437.6171428571428</v>
+      </c>
+      <c r="N203" t="n">
+        <v>443.5733333333333</v>
+      </c>
+      <c r="O203" t="n">
+        <v>430.8971428571429</v>
+      </c>
+      <c r="P203" t="n">
+        <v>420.5433333333333</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>411.15</v>
+      </c>
+      <c r="R203" t="n">
+        <v>405.065</v>
+      </c>
+      <c r="S203" t="n">
+        <v>406.8817647058824</v>
+      </c>
+      <c r="T203" t="n">
+        <v>406.0633333333333</v>
+      </c>
+      <c r="U203" t="n">
+        <v>407.4971428571428</v>
+      </c>
+      <c r="V203" t="n">
+        <v>406.31</v>
+      </c>
+      <c r="W203" t="n">
+        <v>408.06</v>
+      </c>
+      <c r="X203" t="n">
+        <v>415.41</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>413.94</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>402.36</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>391.7971428571428</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>387.7471428571428</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>379.54</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>368.42</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>358.1371428571428</v>
+      </c>
+      <c r="AH203" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19531,7 +19857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21599,6 +21925,36 @@
       </c>
       <c r="B206" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -21767,28 +22123,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2947127497070173</v>
+        <v>0.2885990688759694</v>
       </c>
       <c r="J2" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K2" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02104251786338029</v>
+        <v>0.02077492682673709</v>
       </c>
       <c r="M2" t="n">
-        <v>11.43923709795756</v>
+        <v>11.44746134836222</v>
       </c>
       <c r="N2" t="n">
-        <v>222.2385710294854</v>
+        <v>220.8475397016584</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90766819557926</v>
+        <v>14.86094006789807</v>
       </c>
       <c r="P2" t="n">
-        <v>408.7673182609268</v>
+        <v>408.8251103919141</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21844,28 +22200,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2758153666706769</v>
+        <v>0.2945471604347977</v>
       </c>
       <c r="J3" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K3" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01829896921633689</v>
+        <v>0.02137202286938678</v>
       </c>
       <c r="M3" t="n">
-        <v>11.67719441140733</v>
+        <v>11.61673582218737</v>
       </c>
       <c r="N3" t="n">
-        <v>228.6085172733289</v>
+        <v>227.0987548356739</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1198054641364</v>
+        <v>15.06979611128412</v>
       </c>
       <c r="P3" t="n">
-        <v>419.7300974084496</v>
+        <v>419.5587889422711</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21921,28 +22277,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.363904493965155</v>
+        <v>0.3886220627409944</v>
       </c>
       <c r="J4" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K4" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02652476979896101</v>
+        <v>0.03111512001171091</v>
       </c>
       <c r="M4" t="n">
-        <v>12.42822373292354</v>
+        <v>12.3042927949965</v>
       </c>
       <c r="N4" t="n">
-        <v>260.3058870482145</v>
+        <v>256.9745333530338</v>
       </c>
       <c r="O4" t="n">
-        <v>16.13399786315265</v>
+        <v>16.03042523930772</v>
       </c>
       <c r="P4" t="n">
-        <v>423.7111299192548</v>
+        <v>423.47231075924</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21998,28 +22354,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2904056374699877</v>
+        <v>0.338501890917376</v>
       </c>
       <c r="J5" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K5" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01735964312141303</v>
+        <v>0.02402413978912166</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87412505806299</v>
+        <v>12.89152763115955</v>
       </c>
       <c r="N5" t="n">
-        <v>271.6180600165593</v>
+        <v>270.4820414049103</v>
       </c>
       <c r="O5" t="n">
-        <v>16.48083917816563</v>
+        <v>16.4463382369727</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0920389414175</v>
+        <v>427.659976533467</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22075,28 +22431,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3550059778597105</v>
+        <v>0.424159442901128</v>
       </c>
       <c r="J6" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K6" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02373791648267454</v>
+        <v>0.03403681367448197</v>
       </c>
       <c r="M6" t="n">
-        <v>12.65999086583915</v>
+        <v>12.78916583083612</v>
       </c>
       <c r="N6" t="n">
-        <v>287.9872573747288</v>
+        <v>289.5550855476346</v>
       </c>
       <c r="O6" t="n">
-        <v>16.97018731112679</v>
+        <v>17.01631821363348</v>
       </c>
       <c r="P6" t="n">
-        <v>426.7696934666159</v>
+        <v>426.1253379493565</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22152,28 +22508,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3968047914193748</v>
+        <v>0.4499150246538941</v>
       </c>
       <c r="J7" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K7" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03426760037635246</v>
+        <v>0.04458574897289913</v>
       </c>
       <c r="M7" t="n">
-        <v>12.09219657005374</v>
+        <v>12.1303512336587</v>
       </c>
       <c r="N7" t="n">
-        <v>254.7066458231634</v>
+        <v>254.4978302601901</v>
       </c>
       <c r="O7" t="n">
-        <v>15.95953150387452</v>
+        <v>15.95298812950696</v>
       </c>
       <c r="P7" t="n">
-        <v>422.0055157582161</v>
+        <v>421.5387236142161</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22229,28 +22585,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.479884393856654</v>
+        <v>0.5236513998107679</v>
       </c>
       <c r="J8" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K8" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04837916236214568</v>
+        <v>0.05860168683287326</v>
       </c>
       <c r="M8" t="n">
-        <v>12.1594795374907</v>
+        <v>12.14485124318055</v>
       </c>
       <c r="N8" t="n">
-        <v>261.6408559605943</v>
+        <v>259.888415210947</v>
       </c>
       <c r="O8" t="n">
-        <v>16.17531625535013</v>
+        <v>16.12105502784935</v>
       </c>
       <c r="P8" t="n">
-        <v>418.9823942967921</v>
+        <v>418.5957319003332</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22306,28 +22662,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5100809616434006</v>
+        <v>0.532625795294319</v>
       </c>
       <c r="J9" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04704558780222856</v>
+        <v>0.05282234712826805</v>
       </c>
       <c r="M9" t="n">
-        <v>13.00270369756301</v>
+        <v>12.88101073552886</v>
       </c>
       <c r="N9" t="n">
-        <v>305.5926080268729</v>
+        <v>301.1938046436144</v>
       </c>
       <c r="O9" t="n">
-        <v>17.4812072817318</v>
+        <v>17.35493603110119</v>
       </c>
       <c r="P9" t="n">
-        <v>415.9319775174907</v>
+        <v>415.7344473947815</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22383,28 +22739,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7785336761843376</v>
+        <v>0.7696327770377186</v>
       </c>
       <c r="J10" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K10" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09712581884431815</v>
+        <v>0.09854246714915349</v>
       </c>
       <c r="M10" t="n">
-        <v>13.88172475067976</v>
+        <v>13.73305135730738</v>
       </c>
       <c r="N10" t="n">
-        <v>327.4539827910802</v>
+        <v>322.2575623168705</v>
       </c>
       <c r="O10" t="n">
-        <v>18.09568961910765</v>
+        <v>17.95153370374995</v>
       </c>
       <c r="P10" t="n">
-        <v>409.1434814040128</v>
+        <v>409.2206942193597</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22460,28 +22816,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8132781219703834</v>
+        <v>0.8074762691784231</v>
       </c>
       <c r="J11" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K11" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1058712157384857</v>
+        <v>0.1081924921888828</v>
       </c>
       <c r="M11" t="n">
-        <v>13.59294745988886</v>
+        <v>13.44910985158913</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2787704558068</v>
+        <v>312.3319072341456</v>
       </c>
       <c r="O11" t="n">
-        <v>17.81232074873476</v>
+        <v>17.67291450876582</v>
       </c>
       <c r="P11" t="n">
-        <v>407.624828514455</v>
+        <v>407.6762867902137</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22537,28 +22893,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6621765956040988</v>
+        <v>0.6713033799193636</v>
       </c>
       <c r="J12" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K12" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07544959412595831</v>
+        <v>0.08020001660515808</v>
       </c>
       <c r="M12" t="n">
-        <v>13.70500158579792</v>
+        <v>13.51206106850484</v>
       </c>
       <c r="N12" t="n">
-        <v>303.8874586351616</v>
+        <v>298.7230415151966</v>
       </c>
       <c r="O12" t="n">
-        <v>17.43236813043947</v>
+        <v>17.28360614904183</v>
       </c>
       <c r="P12" t="n">
-        <v>408.159950482003</v>
+        <v>408.0786161235971</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22614,28 +22970,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5801673846265681</v>
+        <v>0.6222787654613474</v>
       </c>
       <c r="J13" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K13" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05776818542567519</v>
+        <v>0.06773751362707769</v>
       </c>
       <c r="M13" t="n">
-        <v>14.57398589516768</v>
+        <v>14.55336520908337</v>
       </c>
       <c r="N13" t="n">
-        <v>323.2641273880994</v>
+        <v>320.447285400658</v>
       </c>
       <c r="O13" t="n">
-        <v>17.97954747450834</v>
+        <v>17.90104146134124</v>
       </c>
       <c r="P13" t="n">
-        <v>407.0968534364746</v>
+        <v>406.7322514933139</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22691,28 +23047,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6224244352798946</v>
+        <v>0.674649838438705</v>
       </c>
       <c r="J14" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K14" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0694087571321671</v>
+        <v>0.08223121510237374</v>
       </c>
       <c r="M14" t="n">
-        <v>14.43687938423055</v>
+        <v>14.48914671807967</v>
       </c>
       <c r="N14" t="n">
-        <v>312.5118798953622</v>
+        <v>312.1381099890611</v>
       </c>
       <c r="O14" t="n">
-        <v>17.67800554065311</v>
+        <v>17.66743076932979</v>
       </c>
       <c r="P14" t="n">
-        <v>404.6587285475372</v>
+        <v>404.2158469977032</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22768,28 +23124,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4828671630265768</v>
+        <v>0.5091139802760428</v>
       </c>
       <c r="J15" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K15" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04763890396571102</v>
+        <v>0.0543232357205472</v>
       </c>
       <c r="M15" t="n">
-        <v>12.72103590591266</v>
+        <v>12.6429026012266</v>
       </c>
       <c r="N15" t="n">
-        <v>268.4297341888879</v>
+        <v>265.5612427209524</v>
       </c>
       <c r="O15" t="n">
-        <v>16.38382538325186</v>
+        <v>16.29604991158755</v>
       </c>
       <c r="P15" t="n">
-        <v>404.1808064387715</v>
+        <v>403.9482061415755</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22845,28 +23201,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2758438296698005</v>
+        <v>0.3074170174529868</v>
       </c>
       <c r="J16" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K16" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01236691398022638</v>
+        <v>0.01583504553494886</v>
       </c>
       <c r="M16" t="n">
-        <v>14.93369821216041</v>
+        <v>14.81523846498216</v>
       </c>
       <c r="N16" t="n">
-        <v>348.431045439946</v>
+        <v>344.4565785339765</v>
       </c>
       <c r="O16" t="n">
-        <v>18.66630776131011</v>
+        <v>18.55954144191005</v>
       </c>
       <c r="P16" t="n">
-        <v>403.8496991770604</v>
+        <v>403.5711807562674</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22922,28 +23278,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2015386737021006</v>
+        <v>-0.1354387914336528</v>
       </c>
       <c r="J17" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K17" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006737824363134859</v>
+        <v>0.003141475146163031</v>
       </c>
       <c r="M17" t="n">
-        <v>15.02486957419027</v>
+        <v>15.02406230008924</v>
       </c>
       <c r="N17" t="n">
-        <v>345.7939333040459</v>
+        <v>346.2928121354724</v>
       </c>
       <c r="O17" t="n">
-        <v>18.59553530565995</v>
+        <v>18.60894441217643</v>
       </c>
       <c r="P17" t="n">
-        <v>402.3615659162898</v>
+        <v>401.8061355913657</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -22993,28 +23349,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.1267069688805106</v>
+        <v>0.1576335158592809</v>
       </c>
       <c r="J18" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K18" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001788315744934432</v>
+        <v>0.002881840096422894</v>
       </c>
       <c r="M18" t="n">
-        <v>17.88783776066877</v>
+        <v>17.77827373100675</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9586767063593</v>
+        <v>503.3334961762747</v>
       </c>
       <c r="O18" t="n">
-        <v>22.58226464963953</v>
+        <v>22.43509518981978</v>
       </c>
       <c r="P18" t="n">
-        <v>385.5282238640698</v>
+        <v>385.2653614956898</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -23064,28 +23420,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1472857077216729</v>
+        <v>0.1852121255398634</v>
       </c>
       <c r="J19" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K19" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002972147537136927</v>
+        <v>0.004953254129463569</v>
       </c>
       <c r="M19" t="n">
-        <v>16.22546692886347</v>
+        <v>15.9769978253004</v>
       </c>
       <c r="N19" t="n">
-        <v>403.6259171803014</v>
+        <v>395.2108634767487</v>
       </c>
       <c r="O19" t="n">
-        <v>20.09044342916058</v>
+        <v>19.87991105303916</v>
       </c>
       <c r="P19" t="n">
-        <v>390.7808532944554</v>
+        <v>390.4391597522105</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -23141,28 +23497,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3814099550679803</v>
+        <v>0.4149545614389071</v>
       </c>
       <c r="J20" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K20" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02820271823653508</v>
+        <v>0.03433060033388613</v>
       </c>
       <c r="M20" t="n">
-        <v>13.62994326485432</v>
+        <v>13.52968492099271</v>
       </c>
       <c r="N20" t="n">
-        <v>285.453585563632</v>
+        <v>281.8953686905398</v>
       </c>
       <c r="O20" t="n">
-        <v>16.89537172019698</v>
+        <v>16.78973998281509</v>
       </c>
       <c r="P20" t="n">
-        <v>385.2834014259644</v>
+        <v>384.9807003705304</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -23218,28 +23574,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5173651463326319</v>
+        <v>0.5446116156955388</v>
       </c>
       <c r="J21" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K21" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0626394800735478</v>
+        <v>0.0710437777620041</v>
       </c>
       <c r="M21" t="n">
-        <v>12.23562898476921</v>
+        <v>12.12817244317382</v>
       </c>
       <c r="N21" t="n">
-        <v>235.1512180688886</v>
+        <v>232.2354415249648</v>
       </c>
       <c r="O21" t="n">
-        <v>15.33464111314277</v>
+        <v>15.23927299857066</v>
       </c>
       <c r="P21" t="n">
-        <v>382.1179240733668</v>
+        <v>381.8744321110706</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -23295,28 +23651,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4063159741662699</v>
+        <v>0.4280837645777933</v>
       </c>
       <c r="J22" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K22" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04180955800911956</v>
+        <v>0.04766782826354676</v>
       </c>
       <c r="M22" t="n">
-        <v>11.6048950154949</v>
+        <v>11.49838321856211</v>
       </c>
       <c r="N22" t="n">
-        <v>226.2741268110966</v>
+        <v>223.1568381264319</v>
       </c>
       <c r="O22" t="n">
-        <v>15.04241093744938</v>
+        <v>14.93843492894861</v>
       </c>
       <c r="P22" t="n">
-        <v>382.6233494335109</v>
+        <v>382.4305746567349</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -23372,28 +23728,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2696461022798383</v>
+        <v>0.3095974367845338</v>
       </c>
       <c r="J23" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K23" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01873468752526353</v>
+        <v>0.02518585810132401</v>
       </c>
       <c r="M23" t="n">
-        <v>12.01233483130259</v>
+        <v>12.01430653488652</v>
       </c>
       <c r="N23" t="n">
-        <v>220.0877885209157</v>
+        <v>218.7308439565936</v>
       </c>
       <c r="O23" t="n">
-        <v>14.83535602946271</v>
+        <v>14.78955185110738</v>
       </c>
       <c r="P23" t="n">
-        <v>383.1567166858316</v>
+        <v>382.7960449396369</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -23449,28 +23805,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4417021900011275</v>
+        <v>0.5004021758459033</v>
       </c>
       <c r="J24" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K24" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05206343672300673</v>
+        <v>0.0665758682350488</v>
       </c>
       <c r="M24" t="n">
-        <v>11.63734470374241</v>
+        <v>11.72190711858644</v>
       </c>
       <c r="N24" t="n">
-        <v>204.9267593178468</v>
+        <v>206.7752310009284</v>
       </c>
       <c r="O24" t="n">
-        <v>14.31526315922438</v>
+        <v>14.37968118564971</v>
       </c>
       <c r="P24" t="n">
-        <v>379.2268675556313</v>
+        <v>378.7020702991616</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -23526,28 +23882,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3929781489639806</v>
+        <v>0.4616463168806301</v>
       </c>
       <c r="J25" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K25" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04435567253746442</v>
+        <v>0.06012270067105785</v>
       </c>
       <c r="M25" t="n">
-        <v>11.56097460691771</v>
+        <v>11.7122174387013</v>
       </c>
       <c r="N25" t="n">
-        <v>195.1785938455627</v>
+        <v>199.217324740231</v>
       </c>
       <c r="O25" t="n">
-        <v>13.97063326573147</v>
+        <v>14.11443674895428</v>
       </c>
       <c r="P25" t="n">
-        <v>378.5025263366994</v>
+        <v>377.8895872904985</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -23603,28 +23959,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2581048399996598</v>
+        <v>0.3185235680297195</v>
       </c>
       <c r="J26" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K26" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0208206508212111</v>
+        <v>0.03141552252961399</v>
       </c>
       <c r="M26" t="n">
-        <v>11.5651951889209</v>
+        <v>11.68421316493937</v>
       </c>
       <c r="N26" t="n">
-        <v>185.0239692113479</v>
+        <v>188.1797784106574</v>
       </c>
       <c r="O26" t="n">
-        <v>13.60235160593005</v>
+        <v>13.71786347835031</v>
       </c>
       <c r="P26" t="n">
-        <v>378.9080111091846</v>
+        <v>378.3697490126297</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -23680,28 +24036,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0151633055531985</v>
+        <v>0.04582541972262003</v>
       </c>
       <c r="J27" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K27" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L27" t="n">
-        <v>6.324552717851262e-05</v>
+        <v>0.0005816840390792111</v>
       </c>
       <c r="M27" t="n">
-        <v>12.03547680821965</v>
+        <v>12.14106202342173</v>
       </c>
       <c r="N27" t="n">
-        <v>210.1989802346976</v>
+        <v>212.7031695992973</v>
       </c>
       <c r="O27" t="n">
-        <v>14.49824059100612</v>
+        <v>14.58434673200337</v>
       </c>
       <c r="P27" t="n">
-        <v>381.1767876834924</v>
+        <v>380.628025081578</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -23757,28 +24113,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.02343375819290216</v>
+        <v>0.03755191190825801</v>
       </c>
       <c r="J28" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K28" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001332719218787304</v>
+        <v>0.0003447872089589188</v>
       </c>
       <c r="M28" t="n">
-        <v>12.80721359666194</v>
+        <v>12.88335659023358</v>
       </c>
       <c r="N28" t="n">
-        <v>239.9514085253256</v>
+        <v>242.5520871818152</v>
       </c>
       <c r="O28" t="n">
-        <v>15.49036502233971</v>
+        <v>15.5740838312183</v>
       </c>
       <c r="P28" t="n">
-        <v>377.2088474972471</v>
+        <v>376.6596656479241</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -23834,28 +24190,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1113733735654816</v>
+        <v>-0.04788494067113845</v>
       </c>
       <c r="J29" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002332438202574449</v>
+        <v>0.0004388358965080608</v>
       </c>
       <c r="M29" t="n">
-        <v>14.165491077061</v>
+        <v>14.22813775126366</v>
       </c>
       <c r="N29" t="n">
-        <v>305.8183969977681</v>
+        <v>306.7960343141154</v>
       </c>
       <c r="O29" t="n">
-        <v>17.48766413783637</v>
+        <v>17.51559403257895</v>
       </c>
       <c r="P29" t="n">
-        <v>370.7869835190926</v>
+        <v>370.2121540053839</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -23911,28 +24267,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2704537099342965</v>
+        <v>-0.2115303255507345</v>
       </c>
       <c r="J30" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K30" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01131768456928073</v>
+        <v>0.0071066597933368</v>
       </c>
       <c r="M30" t="n">
-        <v>15.51272270934908</v>
+        <v>15.55803973470656</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6011557954189</v>
+        <v>367.6301277860754</v>
       </c>
       <c r="O30" t="n">
-        <v>19.19898840552332</v>
+        <v>19.17368320866065</v>
       </c>
       <c r="P30" t="n">
-        <v>361.4464911423938</v>
+        <v>360.9128719040968</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -23988,28 +24344,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4754122229177605</v>
+        <v>-0.4088028801743901</v>
       </c>
       <c r="J31" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K31" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03945194790282658</v>
+        <v>0.02998494020198839</v>
       </c>
       <c r="M31" t="n">
-        <v>13.95442139481667</v>
+        <v>14.03473290081384</v>
       </c>
       <c r="N31" t="n">
-        <v>311.4397692972583</v>
+        <v>312.4768372489599</v>
       </c>
       <c r="O31" t="n">
-        <v>17.64765619840941</v>
+        <v>17.67701437599008</v>
       </c>
       <c r="P31" t="n">
-        <v>354.573628880691</v>
+        <v>353.9672587305768</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -24065,28 +24421,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4482683311898704</v>
+        <v>-0.3710160120459169</v>
       </c>
       <c r="J32" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K32" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04616758953984279</v>
+        <v>0.03213997064004614</v>
       </c>
       <c r="M32" t="n">
-        <v>11.83303261468322</v>
+        <v>11.94393704534881</v>
       </c>
       <c r="N32" t="n">
-        <v>232.5832339946708</v>
+        <v>236.9917631367951</v>
       </c>
       <c r="O32" t="n">
-        <v>15.25067978795276</v>
+        <v>15.39453679513596</v>
       </c>
       <c r="P32" t="n">
-        <v>352.3404101352866</v>
+        <v>351.6264000883622</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -24142,28 +24498,28 @@
         <v>0.0363</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.9063964189736855</v>
+        <v>-0.7882058236943956</v>
       </c>
       <c r="J33" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K33" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1195821025215917</v>
+        <v>0.0922955567522632</v>
       </c>
       <c r="M33" t="n">
-        <v>14.65564812165593</v>
+        <v>14.83492590901469</v>
       </c>
       <c r="N33" t="n">
-        <v>353.3564237658385</v>
+        <v>365.0036189164994</v>
       </c>
       <c r="O33" t="n">
-        <v>18.79777709639729</v>
+        <v>19.10506788568152</v>
       </c>
       <c r="P33" t="n">
-        <v>350.6806249635552</v>
+        <v>349.625154926063</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -24200,7 +24556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH200"/>
+  <dimension ref="A1:AH203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53371,7 +53727,11 @@
         </is>
       </c>
       <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>-35.281612864381906,173.15022957940727</t>
+        </is>
+      </c>
       <c r="T200" t="inlineStr">
         <is>
           <t>-35.28103506714,173.14967584263965</t>
@@ -53443,6 +53803,522 @@
         </is>
       </c>
       <c r="AH200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-35.291511151323334,173.15950803720693</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-35.291026213618565,173.15881297609752</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-35.290465222958886,173.15823412113852</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-35.2899213255189,173.15762914060517</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-35.28936892999861,173.15703713931686</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-35.28875770910963,173.15653502021502</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-35.2881420809432,173.15603962941208</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-35.287542986362595,173.1555189681972</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-35.28693635056782,173.1550098241155</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>-35.2863639352918,173.15444838318984</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-35.285769329008765,173.15392084502062</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>-35.28522412007092,173.15331781904905</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-35.28467430234133,173.15272371230552</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>-35.284042772226464,173.15226151534847</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>-35.28348586877198,173.15168435325515</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>-35.28291763780181,173.15111649126783</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>-35.28220498959942,173.15076212811132</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>-35.2816763354414,173.15013574477896</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>-35.28110801438426,173.14956799853414</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>-35.280526153111644,173.14902026413552</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>-35.279897653335844,173.1485414735942</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>-35.279339880578846,173.14795811543522</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>-35.27881865327786,173.14732072304824</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>-35.27828388057002,173.14670335003873</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>-35.277732980696555,173.14610981337998</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>-35.2771439806002,173.1455885291827</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>-35.27660040640365,173.14500783621472</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>-35.27597957172258,173.1445121176035</t>
+        </is>
+      </c>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>-35.27530685302277,173.14407774833646</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>-35.2746788267147,173.14358494357575</t>
+        </is>
+      </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>-35.27418376629169,173.1429182955327</t>
+        </is>
+      </c>
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>-35.273670356677776,173.1422756323209</t>
+        </is>
+      </c>
+      <c r="AH201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-35.291373804649155,173.15971790819344</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-35.290882680196916,173.15903230158648</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-35.29036672822924,173.1583846257854</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-35.28985691897665,173.15772755711757</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-35.28931189252417,173.1571242956453</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-35.2887170405378,173.15659716392486</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-35.288125993576855,173.15606421172913</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-35.28750799928716,173.1555724301743</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-35.28687250782138,173.15510737881743</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>-35.28630689270044,173.15453554699002</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-35.285749354503466,173.1539513670265</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>-35.28520477064806,173.1533473859483</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-35.28460614079134,173.15282756597196</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>-35.28396172623384,173.15238297461553</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>-35.28338082611869,173.15183964700185</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>-35.282764320509756,173.15134315351943</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>-35.282090575667326,173.15093127533433</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>-35.28158612922245,173.15026910417546</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>-35.28104600732018,173.14965966886373</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>-35.28046774201353,173.14910661824248</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>-35.27990729285049,173.14852722268643</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>-35.279361225118095,173.14792655996396</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>-35.27881142371199,173.1473314111587</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>-35.27824761815795,173.14675696005975</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>-35.27764398898367,173.14624137793743</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>-35.27706097650312,173.14570611566413</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>-35.27649082275833,173.1451538383092</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>-35.2759193600333,173.1445908382417</t>
+        </is>
+      </c>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>-35.27529295332272,173.14409592072116</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>-35.274719726139644,173.14353147197093</t>
+        </is>
+      </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>-35.274169436180394,173.14293703065002</t>
+        </is>
+      </c>
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>-35.273587635984335,173.1423837810542</t>
+        </is>
+      </c>
+      <c r="AH202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:18:03+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>-35.29136307940542,173.15973429672388</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-35.29091498697052,173.158982935512</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-35.2903968222985,173.1583386406807</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>-35.289899275427885,173.1576628343108</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>-35.2893690424985,173.15703696741076</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-35.28873487171363,173.15656991696707</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-35.2881589557976,173.15601384375438</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-35.28751542419904,173.15556108454956</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>-35.286878638978415,173.15509801013465</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>-35.28630124281177,173.15454418027747</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>-35.28575214193489,173.15394710769868</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>-35.2852400383407,173.1532934951068</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>-35.28470110488829,173.15268287478688</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>-35.28406161084905,173.15223328285776</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>-35.283439601830466,173.15175275380957</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>-35.2828199210291,173.15126095462054</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>-35.28221921960044,173.15074109071028</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>-35.28166385387429,173.15015419735397</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>-35.28109336373938,173.1495896578535</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>-35.28053579265821,173.1490060131511</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>-35.27996317905106,173.14844460128558</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>-35.27940741421369,173.1478582745461</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>-35.27888377670533,173.14722444514214</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>-35.278309528179356,173.14666543279563</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>-35.277677267655214,173.14619217910376</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>-35.277086860146,173.14566944804153</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>-35.27651560085365,173.1451208256478</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>-35.27595613898753,173.14454275353475</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>-35.27536927863293,173.14399613334635</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>-35.27476480773386,173.1434725325307</t>
+        </is>
+      </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>-35.27422810966479,173.14286032115785</t>
+        </is>
+      </c>
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>-35.27362847357304,173.14233039018285</t>
+        </is>
+      </c>
+      <c r="AH203" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -21968,7 +21968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22059,35 +22059,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22146,27 +22151,28 @@
       <c r="P2" t="n">
         <v>408.8251103919141</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.163217076446 -35.2890837083119, 173.15525633440342 -35.29429343081666)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.163217076446</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.2890837083119</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1552563344034</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.29429343081666</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1592367054247</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.29168856956428</v>
       </c>
     </row>
@@ -22223,27 +22229,28 @@
       <c r="P3" t="n">
         <v>419.5587889422711</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.16265686181822 -35.288510524019095, 173.15469613261428 -35.29372023590141)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1626568618182</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.2885105240191</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1546961326143</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.29372023590141</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1586764972162</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.29111537996025</v>
       </c>
     </row>
@@ -22300,27 +22307,28 @@
       <c r="P4" t="n">
         <v>423.47231075924</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.16209664719028 -35.2879373356676, 173.1541359308257 -35.2931470369278)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1620966471903</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.2879373356676</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1541359308257</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.2931470369278</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.158116289008</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.2905421862977</v>
       </c>
     </row>
@@ -22377,27 +22385,28 @@
       <c r="P5" t="n">
         <v>427.659976533467</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.16153643256197 -35.28736414325742, 173.15357572903753 -35.29257383389582)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.161536432562</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.28736414325742</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.1535757290375</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.29257383389582</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.1575560807997</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.28996898857662</v>
       </c>
     </row>
@@ -22454,27 +22463,28 @@
       <c r="P6" t="n">
         <v>426.1253379493565</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.16097621793352 -35.28679094678866, 173.1530155272498 -35.29200062680541)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.1609762179335</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.28679094678866</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.1530155272498</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.29200062680541</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1569958725917</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.28939578679704</v>
       </c>
     </row>
@@ -22531,27 +22541,28 @@
       <c r="P7" t="n">
         <v>421.5387236142161</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.16041600330482 -35.28621774626132, 173.15245532546265 -35.291427415656685)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.1604160033048</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.28621774626132</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.1524553254627</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.29142741565668</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.1564356643837</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.28882258095901</v>
       </c>
     </row>
@@ -22608,27 +22619,28 @@
       <c r="P8" t="n">
         <v>418.5957319003332</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.15985578867594 -35.285644541675474, 173.15189512367584 -35.29085420044959)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.1598557886759</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.28564454167547</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.1518951236758</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.29085420044959</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1558754561759</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.28824937106253</v>
       </c>
     </row>
@@ -22685,27 +22697,28 @@
       <c r="P9" t="n">
         <v>415.7344473947815</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.15929557404678 -35.28507133303096, 173.15133492188974 -35.29028098118439)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.1592955740468</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.28507133303096</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.1513349218897</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.29028098118439</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.1553152479682</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.28767615710768</v>
       </c>
     </row>
@@ -22762,27 +22775,28 @@
       <c r="P10" t="n">
         <v>409.2206942193597</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.15873535941728 -35.284498120328, 173.15077472010395 -35.28970775786087)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.1587353594173</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.284498120328</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.150774720104</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.28970775786087</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.1547550397606</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.28710293909444</v>
       </c>
     </row>
@@ -22839,27 +22853,28 @@
       <c r="P11" t="n">
         <v>407.6762867902137</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.15817514478763 -35.283924903566614, 173.1502145183186 -35.28913453047908)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.1581751447876</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.28392490356661</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.1502145183186</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.28913453047908</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.1541948315531</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.28652971702284</v>
       </c>
     </row>
@@ -22916,27 +22931,28 @@
       <c r="P12" t="n">
         <v>408.0786161235971</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.15761493015782 -35.2833516827468, 173.14965431653366 -35.288561299039046)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.1576149301578</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.2833516827468</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.1496543165337</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.28856129903905</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.1536346233457</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.28595649089292</v>
       </c>
     </row>
@@ -22993,27 +23009,28 @@
       <c r="P13" t="n">
         <v>406.7322514933139</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.15705471552775 -35.282778457868524, 173.14909411474932 -35.28798806354093)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.1570547155277</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.28277845786852</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.1490941147493</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.28798806354093</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.1530744151385</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.28538326070473</v>
       </c>
     </row>
@@ -23070,27 +23087,28 @@
       <c r="P14" t="n">
         <v>404.2158469977032</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.15649097917228 -35.282201628045804, 173.14853937453793 -35.2874204099237)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.1564909791723</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.2822016280458</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.1485393745379</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.2874204099237</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.1525151768551</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.28481101898475</v>
       </c>
     </row>
@@ -23147,27 +23165,28 @@
       <c r="P15" t="n">
         <v>403.9482061415755</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.15590848991727 -35.281609135701245, 173.1480086962348 -35.286880367101105)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.1559084899173</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.28160913570125</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.1480086962348</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.28688036710111</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.151958593076</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.28424475140118</v>
       </c>
     </row>
@@ -23224,27 +23243,28 @@
       <c r="P16" t="n">
         <v>403.5711807562674</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.15532007835054 -35.281026494617635, 173.14746344590048 -35.286340763232616)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.1553200783505</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.28102649461763</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.1474634459005</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.28634076323262</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.1513917621255</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.28368362892513</v>
       </c>
     </row>
@@ -23301,27 +23321,28 @@
       <c r="P17" t="n">
         <v>401.8061355913657</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.15474858306067 -35.28046072276821, 173.14689196157084 -35.28577498069762)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.1547485830607</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.28046072276821</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.1468919615708</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.28577498069762</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.1508202723157</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.28311785173291</v>
       </c>
     </row>
@@ -23372,27 +23393,28 @@
       <c r="P18" t="n">
         <v>385.2653614956898</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.15417708777045 -35.27989494696558, 173.14632047724186 -35.28520919420965)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.1541770877704</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.27989494696558</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.1463204772419</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.28520919420965</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.1502487825061</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.28255207058761</v>
       </c>
     </row>
@@ -23443,27 +23465,28 @@
       <c r="P19" t="n">
         <v>390.4391597522105</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.15360559248015 -35.27932916720986, 173.1457489929132 -35.28464340376867)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.1536055924801</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.27932916720986</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.1457489929132</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.28464340376867</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.1496772926967</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.28198628548927</v>
       </c>
     </row>
@@ -23520,27 +23543,28 @@
       <c r="P20" t="n">
         <v>384.9807003705304</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.15303409718945 -35.27876338350093, 173.14517750858514 -35.284077609374776)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.1530340971894</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.27876338350093</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.1451775085851</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.28407760937478</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.1491058028873</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.28142049643785</v>
       </c>
     </row>
@@ -23597,27 +23621,28 @@
       <c r="P21" t="n">
         <v>381.8744321110706</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.15246260189855 -35.2781975958389, 173.14460602425768 -35.283511811028)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.1524626018985</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-35.2781975958389</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.1446060242577</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-35.283511811028</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.1485343130781</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-35.28085470343345</v>
       </c>
     </row>
@@ -23674,27 +23699,28 @@
       <c r="P22" t="n">
         <v>382.4305746567349</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.15189110660737 -35.27763180422373, 173.1440345399306 -35.2829460087284)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.1518911066074</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-35.27763180422373</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.1440345399306</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-35.2829460087284</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.147962823269</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-35.28028890647607</v>
       </c>
     </row>
@@ -23751,27 +23777,28 @@
       <c r="P23" t="n">
         <v>382.7960449396369</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.15131961131598 -35.2770660086556, 173.14346305560412 -35.282380202475885)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.151319611316</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-35.2770660086556</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.1434630556041</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-35.28238020247588</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.1473913334601</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-35.27972310556574</v>
       </c>
     </row>
@@ -23828,27 +23855,28 @@
       <c r="P24" t="n">
         <v>378.7020702991616</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.1507481160243 -35.276500209134355, 173.14289157127814 -35.28181439227065)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.1507481160243</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-35.27650020913435</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.1428915712781</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-35.28181439227065</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.1468198436512</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-35.2791573007025</v>
       </c>
     </row>
@@ -23905,27 +23933,28 @@
       <c r="P25" t="n">
         <v>377.8895872904985</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.15017662073234 -35.2759344056601, 173.14232008695274 -35.28124857811266)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.1501766207323</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-35.2759344056601</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.1423200869527</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-35.28124857811266</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.1462483538425</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-35.27859149188638</v>
       </c>
     </row>
@@ -23982,27 +24011,28 @@
       <c r="P26" t="n">
         <v>378.3697490126297</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.14960512544013 -35.27536859823288, 173.14174860262779 -35.28068276000189)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.1496051254401</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-35.27536859823288</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.1417486026278</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-35.28068276000189</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.145676864034</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-35.27802567911738</v>
       </c>
     </row>
@@ -24059,27 +24089,28 @@
       <c r="P27" t="n">
         <v>380.628025081578</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.14897944028007 -35.27475022811442, 173.1412611541324 -35.2801984695292)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.1489794402801</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-35.27475022811442</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.1412611541324</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-35.2801984695292</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.1451202972062</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-35.27747434882181</v>
       </c>
     </row>
@@ -24136,27 +24167,28 @@
       <c r="P28" t="n">
         <v>376.6596656479241</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (173.14829868585548 -35.274130304528725, 173.1407866489122 -35.279768465481155)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>173.1482986858555</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-35.27413030452873</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.1407866489122</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-35.27976846548115</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.1445426673839</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-35.27694938500494</v>
       </c>
     </row>
@@ -24213,27 +24245,28 @@
       <c r="P29" t="n">
         <v>370.2121540053839</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (173.14766050763944 -35.27357132754569, 173.14021366248636 -35.27926715217421)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>173.1476605076394</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-35.27357132754569</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>173.1402136624864</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-35.27926715217421</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>173.1439370850629</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-35.27641923985995</v>
       </c>
     </row>
@@ -24290,27 +24323,28 @@
       <c r="P30" t="n">
         <v>360.9128719040968</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (173.14704788588094 -35.27303495363964, 173.13960104449987 -35.278730767433956)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>173.1470478858809</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-35.27303495363964</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>173.1396010444999</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-35.27873076743396</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>173.1433244651904</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-35.2758828605368</v>
       </c>
     </row>
@@ -24367,27 +24401,28 @@
       <c r="P31" t="n">
         <v>353.9672587305768</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (173.14643526412215 -35.272498576181576, 173.138988426514 -35.27819437914168)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>173.1464352641221</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-35.27249857618158</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>173.138988426514</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-35.27819437914168</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>173.1427118453181</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-35.27534647766163</v>
       </c>
     </row>
@@ -24444,27 +24479,28 @@
       <c r="P32" t="n">
         <v>351.6264000883622</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (173.14582264236296 -35.27196219517146, 173.13837580852885 -35.27765798729754)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>173.145822642363</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-35.27196219517146</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>173.1383758085288</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-35.27765798729754</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>173.1420992254459</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-35.2748100912345</v>
       </c>
     </row>
@@ -24521,27 +24557,28 @@
       <c r="P33" t="n">
         <v>349.625154926063</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (173.1452100206034 -35.27142581060928, 173.13776319054443 -35.27712159190154)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>173.1452100206034</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-35.27142581060928</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>173.1377631905444</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-35.27712159190154</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>173.1414866055739</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-35.27427370125541</v>
       </c>
     </row>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH203"/>
+  <dimension ref="A1:AH205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19846,6 +19846,220 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>381.0933333333333</v>
+      </c>
+      <c r="C204" t="n">
+        <v>412.7033333333333</v>
+      </c>
+      <c r="D204" t="n">
+        <v>438.12</v>
+      </c>
+      <c r="E204" t="n">
+        <v>452.83</v>
+      </c>
+      <c r="F204" t="n">
+        <v>453.82</v>
+      </c>
+      <c r="G204" t="n">
+        <v>447.72</v>
+      </c>
+      <c r="H204" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="I204" t="n">
+        <v>440.01</v>
+      </c>
+      <c r="J204" t="n">
+        <v>434.88</v>
+      </c>
+      <c r="K204" t="n">
+        <v>432.4788888888889</v>
+      </c>
+      <c r="L204" t="n">
+        <v>429.1588888888889</v>
+      </c>
+      <c r="M204" t="n">
+        <v>424.82</v>
+      </c>
+      <c r="N204" t="n">
+        <v>422.1333333333333</v>
+      </c>
+      <c r="O204" t="n">
+        <v>420.98</v>
+      </c>
+      <c r="P204" t="n">
+        <v>405.8533333333333</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>396.34</v>
+      </c>
+      <c r="R204" t="n">
+        <v>392.43</v>
+      </c>
+      <c r="S204" t="n">
+        <v>385.2488235294118</v>
+      </c>
+      <c r="T204" t="n">
+        <v>393.0933333333333</v>
+      </c>
+      <c r="U204" t="n">
+        <v>398.67</v>
+      </c>
+      <c r="V204" t="n">
+        <v>405.06</v>
+      </c>
+      <c r="W204" t="n">
+        <v>417.69</v>
+      </c>
+      <c r="X204" t="n">
+        <v>419.61</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>410.28</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>399.77</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>386.99</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>370.64</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>369.89</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>360.69</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>352.96</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>345.85</v>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>426.63</v>
+      </c>
+      <c r="D205" t="n">
+        <v>441.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>447.52</v>
+      </c>
+      <c r="F205" t="n">
+        <v>446.47</v>
+      </c>
+      <c r="G205" t="n">
+        <v>441.3</v>
+      </c>
+      <c r="H205" t="n">
+        <v>436.35</v>
+      </c>
+      <c r="I205" t="n">
+        <v>431.69</v>
+      </c>
+      <c r="J205" t="n">
+        <v>431.01</v>
+      </c>
+      <c r="K205" t="n">
+        <v>421.66</v>
+      </c>
+      <c r="L205" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="M205" t="n">
+        <v>403.12</v>
+      </c>
+      <c r="N205" t="n">
+        <v>399.44</v>
+      </c>
+      <c r="O205" t="n">
+        <v>410.57</v>
+      </c>
+      <c r="P205" t="n">
+        <v>427.25</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>432.48</v>
+      </c>
+      <c r="R205" t="n">
+        <v>431.865</v>
+      </c>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="n">
+        <v>400.43</v>
+      </c>
+      <c r="U205" t="n">
+        <v>396.24</v>
+      </c>
+      <c r="V205" t="n">
+        <v>395.51</v>
+      </c>
+      <c r="W205" t="n">
+        <v>395.64</v>
+      </c>
+      <c r="X205" t="n">
+        <v>392.77</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>397.48</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>402.02</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>397.86</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>391.29</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>385.21</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>384.24</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>345.01</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>324.59</v>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19857,7 +20071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21955,6 +22169,26 @@
       </c>
       <c r="B209" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -22128,28 +22362,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2885990688759694</v>
+        <v>0.23290575106734</v>
       </c>
       <c r="J2" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K2" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02077492682673709</v>
+        <v>0.01349788128133567</v>
       </c>
       <c r="M2" t="n">
-        <v>11.44746134836222</v>
+        <v>11.60699707941594</v>
       </c>
       <c r="N2" t="n">
-        <v>220.8475397016584</v>
+        <v>226.298088139889</v>
       </c>
       <c r="O2" t="n">
-        <v>14.86094006789807</v>
+        <v>15.04320737541994</v>
       </c>
       <c r="P2" t="n">
-        <v>408.8251103919141</v>
+        <v>409.3405378416252</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22206,28 +22440,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2945471604347977</v>
+        <v>0.2776599985093718</v>
       </c>
       <c r="J3" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K3" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02137202286938678</v>
+        <v>0.01941417611742668</v>
       </c>
       <c r="M3" t="n">
-        <v>11.61673582218737</v>
+        <v>11.56663573608179</v>
       </c>
       <c r="N3" t="n">
-        <v>227.0987548356739</v>
+        <v>225.551358300341</v>
       </c>
       <c r="O3" t="n">
-        <v>15.06979611128412</v>
+        <v>15.0183673646752</v>
       </c>
       <c r="P3" t="n">
-        <v>419.5587889422711</v>
+        <v>419.7156331407889</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22284,28 +22518,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3886220627409944</v>
+        <v>0.4043021170427092</v>
       </c>
       <c r="J4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K4" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03111512001171091</v>
+        <v>0.03438310756672169</v>
       </c>
       <c r="M4" t="n">
-        <v>12.3042927949965</v>
+        <v>12.20932208440145</v>
       </c>
       <c r="N4" t="n">
-        <v>256.9745333530338</v>
+        <v>254.1124802760512</v>
       </c>
       <c r="O4" t="n">
-        <v>16.03042523930772</v>
+        <v>15.94090588003239</v>
       </c>
       <c r="P4" t="n">
-        <v>423.47231075924</v>
+        <v>423.3183054757315</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22362,28 +22596,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.338501890917376</v>
+        <v>0.3696388937254872</v>
       </c>
       <c r="J5" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02402413978912166</v>
+        <v>0.02899107525766642</v>
       </c>
       <c r="M5" t="n">
-        <v>12.89152763115955</v>
+        <v>12.90806731892747</v>
       </c>
       <c r="N5" t="n">
-        <v>270.4820414049103</v>
+        <v>269.5570866025786</v>
       </c>
       <c r="O5" t="n">
-        <v>16.4463382369727</v>
+        <v>16.41819376796908</v>
       </c>
       <c r="P5" t="n">
-        <v>427.659976533467</v>
+        <v>427.3770895485696</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22440,28 +22674,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.424159442901128</v>
+        <v>0.4552618921814075</v>
       </c>
       <c r="J6" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03403681367448197</v>
+        <v>0.03968852677513612</v>
       </c>
       <c r="M6" t="n">
-        <v>12.78916583083612</v>
+        <v>12.7911184975689</v>
       </c>
       <c r="N6" t="n">
-        <v>289.5550855476346</v>
+        <v>288.1862610774271</v>
       </c>
       <c r="O6" t="n">
-        <v>17.01631821363348</v>
+        <v>16.97604963109578</v>
       </c>
       <c r="P6" t="n">
-        <v>426.1253379493565</v>
+        <v>425.8324833168669</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22518,28 +22752,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4499150246538941</v>
+        <v>0.4752915122127709</v>
       </c>
       <c r="J7" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04458574897289913</v>
+        <v>0.05042623546982083</v>
       </c>
       <c r="M7" t="n">
-        <v>12.1303512336587</v>
+        <v>12.10658077603174</v>
       </c>
       <c r="N7" t="n">
-        <v>254.4978302601901</v>
+        <v>253.1491627217281</v>
       </c>
       <c r="O7" t="n">
-        <v>15.95298812950696</v>
+        <v>15.91066191966029</v>
       </c>
       <c r="P7" t="n">
-        <v>421.5387236142161</v>
+        <v>421.313276441587</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22596,28 +22830,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5236513998107679</v>
+        <v>0.5410368799984134</v>
       </c>
       <c r="J8" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K8" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05860168683287326</v>
+        <v>0.06362487965439279</v>
       </c>
       <c r="M8" t="n">
-        <v>12.14485124318055</v>
+        <v>12.08348038661823</v>
       </c>
       <c r="N8" t="n">
-        <v>259.888415210947</v>
+        <v>257.6788590333758</v>
       </c>
       <c r="O8" t="n">
-        <v>16.12105502784935</v>
+        <v>16.0523786098315</v>
       </c>
       <c r="P8" t="n">
-        <v>418.5957319003332</v>
+        <v>418.4407066337758</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22674,28 +22908,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.532625795294319</v>
+        <v>0.5466573447206189</v>
       </c>
       <c r="J9" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05282234712826805</v>
+        <v>0.05669261643071799</v>
       </c>
       <c r="M9" t="n">
-        <v>12.88101073552886</v>
+        <v>12.79635360474044</v>
       </c>
       <c r="N9" t="n">
-        <v>301.1938046436144</v>
+        <v>298.4232814142304</v>
       </c>
       <c r="O9" t="n">
-        <v>17.35493603110119</v>
+        <v>17.27493216815135</v>
       </c>
       <c r="P9" t="n">
-        <v>415.7344473947815</v>
+        <v>415.6102121436355</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22752,28 +22986,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7696327770377186</v>
+        <v>0.7787504796755589</v>
       </c>
       <c r="J10" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09854246714915349</v>
+        <v>0.1030175656182183</v>
       </c>
       <c r="M10" t="n">
-        <v>13.73305135730738</v>
+        <v>13.62388282749649</v>
       </c>
       <c r="N10" t="n">
-        <v>322.2575623168705</v>
+        <v>318.744241514286</v>
       </c>
       <c r="O10" t="n">
-        <v>17.95153370374995</v>
+        <v>17.85340980077156</v>
       </c>
       <c r="P10" t="n">
-        <v>409.2206942193597</v>
+        <v>409.1414951872306</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22830,28 +23064,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8074762691784231</v>
+        <v>0.8047367314137059</v>
       </c>
       <c r="J11" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K11" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1081924921888828</v>
+        <v>0.1099639961598893</v>
       </c>
       <c r="M11" t="n">
-        <v>13.44910985158913</v>
+        <v>13.35776352010723</v>
       </c>
       <c r="N11" t="n">
-        <v>312.3319072341456</v>
+        <v>309.15669205618</v>
       </c>
       <c r="O11" t="n">
-        <v>17.67291450876582</v>
+        <v>17.58285221618438</v>
       </c>
       <c r="P11" t="n">
-        <v>407.6762867902137</v>
+        <v>407.7009460250501</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22908,28 +23142,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6713033799193636</v>
+        <v>0.6613469560780764</v>
       </c>
       <c r="J12" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K12" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08020001660515808</v>
+        <v>0.07963237763182052</v>
       </c>
       <c r="M12" t="n">
-        <v>13.51206106850484</v>
+        <v>13.45325379407569</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7230415151966</v>
+        <v>296.3088975738899</v>
       </c>
       <c r="O12" t="n">
-        <v>17.28360614904183</v>
+        <v>17.21362534662266</v>
       </c>
       <c r="P12" t="n">
-        <v>408.0786161235971</v>
+        <v>408.1692243717285</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22986,28 +23220,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6222787654613474</v>
+        <v>0.6035495746200227</v>
       </c>
       <c r="J13" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K13" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06773751362707769</v>
+        <v>0.06507946216033267</v>
       </c>
       <c r="M13" t="n">
-        <v>14.55336520908337</v>
+        <v>14.50699560015904</v>
       </c>
       <c r="N13" t="n">
-        <v>320.447285400658</v>
+        <v>318.9546573794049</v>
       </c>
       <c r="O13" t="n">
-        <v>17.90104146134124</v>
+        <v>17.85930170469733</v>
       </c>
       <c r="P13" t="n">
-        <v>406.7322514933139</v>
+        <v>406.8970897642415</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23064,28 +23298,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.674649838438705</v>
+        <v>0.6517364726365479</v>
       </c>
       <c r="J14" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08223121510237374</v>
+        <v>0.07833594795186105</v>
       </c>
       <c r="M14" t="n">
-        <v>14.48914671807967</v>
+        <v>14.44083489662889</v>
       </c>
       <c r="N14" t="n">
-        <v>312.1381099890611</v>
+        <v>311.2917188911432</v>
       </c>
       <c r="O14" t="n">
-        <v>17.66743076932979</v>
+        <v>17.64346108027399</v>
       </c>
       <c r="P14" t="n">
-        <v>404.2158469977032</v>
+        <v>404.4132361510596</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23142,28 +23376,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5091139802760428</v>
+        <v>0.5064037987929214</v>
       </c>
       <c r="J15" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K15" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0543232357205472</v>
+        <v>0.05505550305059614</v>
       </c>
       <c r="M15" t="n">
-        <v>12.6429026012266</v>
+        <v>12.55586675200922</v>
       </c>
       <c r="N15" t="n">
-        <v>265.5612427209524</v>
+        <v>262.7085719831411</v>
       </c>
       <c r="O15" t="n">
-        <v>16.29604991158755</v>
+        <v>16.20828713908848</v>
       </c>
       <c r="P15" t="n">
-        <v>403.9482061415755</v>
+        <v>403.9729062570543</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23220,28 +23454,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3074170174529868</v>
+        <v>0.3194184796293553</v>
       </c>
       <c r="J16" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K16" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01583504553494886</v>
+        <v>0.01744295180326538</v>
       </c>
       <c r="M16" t="n">
-        <v>14.81523846498216</v>
+        <v>14.76068018507244</v>
       </c>
       <c r="N16" t="n">
-        <v>344.4565785339765</v>
+        <v>341.9702990487407</v>
       </c>
       <c r="O16" t="n">
-        <v>18.55954144191005</v>
+        <v>18.49243896971788</v>
       </c>
       <c r="P16" t="n">
-        <v>403.5711807562674</v>
+        <v>403.4630313955986</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23298,28 +23532,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1354387914336528</v>
+        <v>-0.09282210764424303</v>
       </c>
       <c r="J17" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003141475146163031</v>
+        <v>0.001492873343480805</v>
       </c>
       <c r="M17" t="n">
-        <v>15.02406230008924</v>
+        <v>15.05519677138707</v>
       </c>
       <c r="N17" t="n">
-        <v>346.2928121354724</v>
+        <v>349.33729845115</v>
       </c>
       <c r="O17" t="n">
-        <v>18.60894441217643</v>
+        <v>18.6905670981688</v>
       </c>
       <c r="P17" t="n">
-        <v>401.8061355913657</v>
+        <v>401.4418060668214</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23370,28 +23604,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.1576335158592809</v>
+        <v>0.2151088282322954</v>
       </c>
       <c r="J18" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K18" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002881840096422894</v>
+        <v>0.005398901745804485</v>
       </c>
       <c r="M18" t="n">
-        <v>17.77827373100675</v>
+        <v>17.83738931360977</v>
       </c>
       <c r="N18" t="n">
-        <v>503.3334961762747</v>
+        <v>508.1501740698581</v>
       </c>
       <c r="O18" t="n">
-        <v>22.43509518981978</v>
+        <v>22.54218654145729</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2653614956898</v>
+        <v>384.7704729447896</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23442,28 +23676,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1852121255398634</v>
+        <v>0.1724640872604703</v>
       </c>
       <c r="J19" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K19" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004953254129463569</v>
+        <v>0.004353467790916166</v>
       </c>
       <c r="M19" t="n">
-        <v>15.9769978253004</v>
+        <v>15.94325480418296</v>
       </c>
       <c r="N19" t="n">
-        <v>395.2108634767487</v>
+        <v>393.2157907326212</v>
       </c>
       <c r="O19" t="n">
-        <v>19.87991105303916</v>
+        <v>19.8296694559597</v>
       </c>
       <c r="P19" t="n">
-        <v>390.4391597522105</v>
+        <v>390.5549992893297</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23520,28 +23754,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4149545614389071</v>
+        <v>0.4178596393877677</v>
       </c>
       <c r="J20" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03433060033388613</v>
+        <v>0.03568666989881275</v>
       </c>
       <c r="M20" t="n">
-        <v>13.52968492099271</v>
+        <v>13.40243039990895</v>
       </c>
       <c r="N20" t="n">
-        <v>281.8953686905398</v>
+        <v>278.4903353350442</v>
       </c>
       <c r="O20" t="n">
-        <v>16.78973998281509</v>
+        <v>16.68802970200629</v>
       </c>
       <c r="P20" t="n">
-        <v>384.9807003705304</v>
+        <v>384.9538412899334</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23598,28 +23832,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5446116156955388</v>
+        <v>0.5484593956065629</v>
       </c>
       <c r="J21" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K21" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0710437777620041</v>
+        <v>0.07369074841140044</v>
       </c>
       <c r="M21" t="n">
-        <v>12.12817244317382</v>
+        <v>11.9925919493099</v>
       </c>
       <c r="N21" t="n">
-        <v>232.2354415249648</v>
+        <v>229.3321618960989</v>
       </c>
       <c r="O21" t="n">
-        <v>15.23927299857066</v>
+        <v>15.14371691151478</v>
       </c>
       <c r="P21" t="n">
-        <v>381.8744321110706</v>
+        <v>381.839751360265</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23676,28 +23910,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4280837645777933</v>
+        <v>0.4434580599713069</v>
       </c>
       <c r="J22" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K22" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04766782826354676</v>
+        <v>0.05200128554678762</v>
       </c>
       <c r="M22" t="n">
-        <v>11.49838321856211</v>
+        <v>11.4334958948551</v>
       </c>
       <c r="N22" t="n">
-        <v>223.1568381264319</v>
+        <v>221.2234912032131</v>
       </c>
       <c r="O22" t="n">
-        <v>14.93843492894861</v>
+        <v>14.87358367049492</v>
       </c>
       <c r="P22" t="n">
-        <v>382.4305746567349</v>
+        <v>382.2936839694685</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23754,28 +23988,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3095974367845338</v>
+        <v>0.3456962666109329</v>
       </c>
       <c r="J23" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K23" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02518585810132401</v>
+        <v>0.0313440788667213</v>
       </c>
       <c r="M23" t="n">
-        <v>12.01430653488652</v>
+        <v>12.06802114168887</v>
       </c>
       <c r="N23" t="n">
-        <v>218.7308439565936</v>
+        <v>220.5821144452664</v>
       </c>
       <c r="O23" t="n">
-        <v>14.78955185110738</v>
+        <v>14.85200708474334</v>
       </c>
       <c r="P23" t="n">
-        <v>382.7960449396369</v>
+        <v>382.4679080514173</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -23832,28 +24066,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5004021758459033</v>
+        <v>0.5333522712229187</v>
       </c>
       <c r="J24" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K24" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0665758682350488</v>
+        <v>0.07514292729659011</v>
       </c>
       <c r="M24" t="n">
-        <v>11.72190711858644</v>
+        <v>11.75451766664608</v>
       </c>
       <c r="N24" t="n">
-        <v>206.7752310009284</v>
+        <v>208.9957889287082</v>
       </c>
       <c r="O24" t="n">
-        <v>14.37968118564971</v>
+        <v>14.45668665112128</v>
       </c>
       <c r="P24" t="n">
-        <v>378.7020702991616</v>
+        <v>378.4055547758737</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -23910,28 +24144,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4616463168806301</v>
+        <v>0.4928698127742082</v>
       </c>
       <c r="J25" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K25" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06012270067105785</v>
+        <v>0.06860637469437392</v>
       </c>
       <c r="M25" t="n">
-        <v>11.7122174387013</v>
+        <v>11.73374608694614</v>
       </c>
       <c r="N25" t="n">
-        <v>199.217324740231</v>
+        <v>199.6682976819507</v>
       </c>
       <c r="O25" t="n">
-        <v>14.11443674895428</v>
+        <v>14.13040330924601</v>
       </c>
       <c r="P25" t="n">
-        <v>377.8895872904985</v>
+        <v>377.6081261714482</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -23988,28 +24222,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3185235680297195</v>
+        <v>0.3499101028833709</v>
       </c>
       <c r="J26" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K26" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03141552252961399</v>
+        <v>0.03807388059897854</v>
       </c>
       <c r="M26" t="n">
-        <v>11.68421316493937</v>
+        <v>11.7165849975913</v>
       </c>
       <c r="N26" t="n">
-        <v>188.1797784106574</v>
+        <v>188.3380009722349</v>
       </c>
       <c r="O26" t="n">
-        <v>13.71786347835031</v>
+        <v>13.72362929301994</v>
       </c>
       <c r="P26" t="n">
-        <v>378.3697490126297</v>
+        <v>378.086169045334</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24066,28 +24300,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04582541972262003</v>
+        <v>0.06933931348565789</v>
       </c>
       <c r="J27" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K27" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0005816840390792111</v>
+        <v>0.001353266605415682</v>
       </c>
       <c r="M27" t="n">
-        <v>12.14106202342173</v>
+        <v>12.12056348131574</v>
       </c>
       <c r="N27" t="n">
-        <v>212.7031695992973</v>
+        <v>211.807448776928</v>
       </c>
       <c r="O27" t="n">
-        <v>14.58434673200337</v>
+        <v>14.55360604032306</v>
       </c>
       <c r="P27" t="n">
-        <v>380.628025081578</v>
+        <v>380.4131771960038</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24144,28 +24378,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03755191190825801</v>
+        <v>0.05327072686090555</v>
       </c>
       <c r="J28" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K28" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003447872089589188</v>
+        <v>0.0007072565240567874</v>
       </c>
       <c r="M28" t="n">
-        <v>12.88335659023358</v>
+        <v>12.8105933196773</v>
       </c>
       <c r="N28" t="n">
-        <v>242.5520871818152</v>
+        <v>240.7360973784883</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5740838312183</v>
+        <v>15.51567263699799</v>
       </c>
       <c r="P28" t="n">
-        <v>376.6596656479241</v>
+        <v>376.5155656669604</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24222,28 +24456,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04788494067113845</v>
+        <v>-0.02822629344796619</v>
       </c>
       <c r="J29" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K29" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004388358965080608</v>
+        <v>0.000155483543103685</v>
       </c>
       <c r="M29" t="n">
-        <v>14.22813775126366</v>
+        <v>14.16328205461845</v>
       </c>
       <c r="N29" t="n">
-        <v>306.7960343141154</v>
+        <v>304.6795492416946</v>
       </c>
       <c r="O29" t="n">
-        <v>17.51559403257895</v>
+        <v>17.45507230697411</v>
       </c>
       <c r="P29" t="n">
-        <v>370.2121540053839</v>
+        <v>370.0313069088475</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24300,28 +24534,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2115303255507345</v>
+        <v>-0.1637065161394356</v>
       </c>
       <c r="J30" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K30" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0071066597933368</v>
+        <v>0.004303499184386328</v>
       </c>
       <c r="M30" t="n">
-        <v>15.55803973470656</v>
+        <v>15.62970673837558</v>
       </c>
       <c r="N30" t="n">
-        <v>367.6301277860754</v>
+        <v>369.2241860291681</v>
       </c>
       <c r="O30" t="n">
-        <v>19.17368320866065</v>
+        <v>19.21520715551014</v>
       </c>
       <c r="P30" t="n">
-        <v>360.9128719040968</v>
+        <v>360.4744790262834</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24378,28 +24612,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4088028801743901</v>
+        <v>-0.3761791700949542</v>
       </c>
       <c r="J31" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K31" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02998494020198839</v>
+        <v>0.02595844406299619</v>
       </c>
       <c r="M31" t="n">
-        <v>14.03473290081384</v>
+        <v>14.02734362964114</v>
       </c>
       <c r="N31" t="n">
-        <v>312.4768372489599</v>
+        <v>311.1026981759934</v>
       </c>
       <c r="O31" t="n">
-        <v>17.67701437599008</v>
+        <v>17.63810358785755</v>
       </c>
       <c r="P31" t="n">
-        <v>353.9672587305768</v>
+        <v>353.6675352279777</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24456,28 +24690,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3710160120459169</v>
+        <v>-0.355287947986986</v>
       </c>
       <c r="J32" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K32" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03213997064004614</v>
+        <v>0.03020184385049196</v>
       </c>
       <c r="M32" t="n">
-        <v>11.94393704534881</v>
+        <v>11.86922201776839</v>
       </c>
       <c r="N32" t="n">
-        <v>236.9917631367951</v>
+        <v>234.7978138288586</v>
       </c>
       <c r="O32" t="n">
-        <v>15.39453679513596</v>
+        <v>15.32311371193396</v>
       </c>
       <c r="P32" t="n">
-        <v>351.6264000883622</v>
+        <v>351.4797807265726</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -24534,28 +24768,28 @@
         <v>0.0363</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7882058236943956</v>
+        <v>-0.7739526307549078</v>
       </c>
       <c r="J33" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K33" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0922955567522632</v>
+        <v>0.09115859686326833</v>
       </c>
       <c r="M33" t="n">
-        <v>14.83492590901469</v>
+        <v>14.76399622904734</v>
       </c>
       <c r="N33" t="n">
-        <v>365.0036189164994</v>
+        <v>361.8748281446357</v>
       </c>
       <c r="O33" t="n">
-        <v>19.10506788568152</v>
+        <v>19.02300786270761</v>
       </c>
       <c r="P33" t="n">
-        <v>349.625154926063</v>
+        <v>349.4972777855202</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -24593,7 +24827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH203"/>
+  <dimension ref="A1:AH205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54361,6 +54595,346 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>-35.29122745738126,173.1599415310372</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-35.29083207308608,173.15910963118552</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-35.29040184467151,173.15833096626073</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>-35.28991138530046,173.15764432978887</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>-35.289343746089095,173.15707562171195</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>-35.28873622170776,173.15656785410545</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>-35.288138143476374,173.156045646064</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>-35.28754641756967,173.15551372513912</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>-35.2869443379367,173.15499761902305</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>-35.28635760417352,173.15445805745134</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>-35.285765697849264,173.1539263936092</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>-35.28516805654462,173.1534034868908</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>-35.284580296101964,173.15286694389417</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>-35.28400516813696,173.1523178706264</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>-35.28335531135805,173.15187736760004</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>-35.28273494229734,173.15138658570956</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>-35.28214672114964,173.1508482711021</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>-35.281539726594474,173.15033770486028</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>-35.28101894375862,173.14969967915812</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>-35.28048514403534,173.14908089137236</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>-35.27995600680057,173.14845520465443</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>-35.27946266894429,173.14777658642257</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>-35.27890787522288,173.14718881803648</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>-35.27828852812428,173.14669647913067</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>-35.277662407009544,173.14621414893273</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>-35.27702679831213,173.1457545335573</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>-35.27643355218747,173.14523014162822</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>-35.27585092441728,173.14468031060144</t>
+        </is>
+      </c>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>-35.275309928177286,173.14407372789654</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>-35.27471695851013,173.1435350903519</t>
+        </is>
+      </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>-35.2741330266141,173.1429846322918</t>
+        </is>
+      </c>
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>-35.27355290468598,173.14242918852372</t>
+        </is>
+      </c>
+      <c r="AH204" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-35.29135518547462,173.15974635890873</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-35.29091041189759,173.15898992641525</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-35.29041973235122,173.1583036330388</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>-35.289881516419186,173.15768997099192</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>-35.28930240234373,173.1571387971302</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>-35.28870010935254,173.15662303563082</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>-35.2880990500395,173.15610538279077</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>-35.28749961813534,173.15558523697547</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>-35.286922569541126,173.15503088219185</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>-35.28629674914987,173.1545510467962</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>-35.28567143135954,173.1540704370863</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>-35.28504599743128,173.1535899985239</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>-35.284452424804236,173.15306177266413</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>-35.28394592029966,173.15240666206876</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>-35.283478084299624,173.1516958617458</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>-35.28294231082917,173.15108001485257</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>-35.282372995183636,173.15051375058397</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>-35.28106104050127,173.1496374440527</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>-35.28047120110639,173.14910150437657</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>-35.27990121077597,173.14853621433102</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>-35.27933615102142,173.1479636291583</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>-35.27875387403884,173.14741649184322</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>-35.2782150852458,173.14680505635124</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>-35.27767531683709,173.14619506317445</t>
+        </is>
+      </c>
+      <c r="AA205" t="inlineStr">
+        <is>
+          <t>-35.27709074269148,173.14566394789614</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>-35.276512513376495,173.14512493919568</t>
+        </is>
+      </c>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>-35.27594053473219,173.14456315450508</t>
+        </is>
+      </c>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>-35.27539818505433,173.14395834114103</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>-35.27467987226421,173.1435835766331</t>
+        </is>
+      </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>-35.27408413198108,173.14304855672688</t>
+        </is>
+      </c>
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>-35.27342215037523,173.142600135295</t>
+        </is>
+      </c>
+      <c r="AH205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-35.28489213343204,173.1538251079792</t>
+          <t>-35.28489213343203,173.1538251079792</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -42892,7 +42892,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>-35.28157579765439,173.15028437816366</t>
+          <t>-35.281575797654384,173.15028437816366</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
@@ -43614,7 +43614,7 @@
       </c>
       <c r="AG133" t="inlineStr">
         <is>
-          <t>-35.27321192554144,173.14287497915006</t>
+          <t>-35.27321192554143,173.14287497915006</t>
         </is>
       </c>
       <c r="AH133" t="inlineStr">
@@ -47569,7 +47569,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>-35.27874739037301,173.14742607719694</t>
+          <t>-35.278747390373006,173.14742607719694</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH205"/>
+  <dimension ref="A1:AH207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20060,6 +20060,182 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>408.7766666666667</v>
+      </c>
+      <c r="C206" t="n">
+        <v>425.7366666666667</v>
+      </c>
+      <c r="D206" t="n">
+        <v>438.6157142857143</v>
+      </c>
+      <c r="E206" t="n">
+        <v>439.9257142857143</v>
+      </c>
+      <c r="F206" t="n">
+        <v>439.6357142857143</v>
+      </c>
+      <c r="G206" t="n">
+        <v>445.3</v>
+      </c>
+      <c r="H206" t="n">
+        <v>439.56</v>
+      </c>
+      <c r="I206" t="n">
+        <v>433.24</v>
+      </c>
+      <c r="J206" t="n">
+        <v>427.16</v>
+      </c>
+      <c r="K206" t="n">
+        <v>424.7544444444445</v>
+      </c>
+      <c r="L206" t="n">
+        <v>421.0244444444445</v>
+      </c>
+      <c r="M206" t="n">
+        <v>419.4457142857143</v>
+      </c>
+      <c r="N206" t="n">
+        <v>418.8866666666667</v>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>411.9533333333333</v>
+      </c>
+      <c r="C207" t="n">
+        <v>426.2033333333333</v>
+      </c>
+      <c r="D207" t="n">
+        <v>433.48</v>
+      </c>
+      <c r="E207" t="n">
+        <v>441.8</v>
+      </c>
+      <c r="F207" t="n">
+        <v>446.82</v>
+      </c>
+      <c r="G207" t="n">
+        <v>446.56</v>
+      </c>
+      <c r="H207" t="n">
+        <v>442.42</v>
+      </c>
+      <c r="I207" t="n">
+        <v>437.11</v>
+      </c>
+      <c r="J207" t="n">
+        <v>428.24</v>
+      </c>
+      <c r="K207" t="n">
+        <v>426.4355555555555</v>
+      </c>
+      <c r="L207" t="n">
+        <v>425.5355555555556</v>
+      </c>
+      <c r="M207" t="n">
+        <v>428.22</v>
+      </c>
+      <c r="N207" t="n">
+        <v>428.2333333333333</v>
+      </c>
+      <c r="O207" t="n">
+        <v>421.43</v>
+      </c>
+      <c r="P207" t="n">
+        <v>417.6733333333333</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>408.17</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>396.9058823529412</v>
+      </c>
+      <c r="T207" t="n">
+        <v>400.4033333333333</v>
+      </c>
+      <c r="U207" t="n">
+        <v>405.19</v>
+      </c>
+      <c r="V207" t="n">
+        <v>404.62</v>
+      </c>
+      <c r="W207" t="n">
+        <v>396.11</v>
+      </c>
+      <c r="X207" t="n">
+        <v>396.07</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>391.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>382.31</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>377.51</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>358.11</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>346.56</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>317.92</v>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20071,7 +20247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22189,6 +22365,26 @@
       </c>
       <c r="B211" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -22362,28 +22558,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.23290575106734</v>
+        <v>0.2213786790221945</v>
       </c>
       <c r="J2" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01349788128133567</v>
+        <v>0.01251907407055208</v>
       </c>
       <c r="M2" t="n">
-        <v>11.60699707941594</v>
+        <v>11.52918030915652</v>
       </c>
       <c r="N2" t="n">
-        <v>226.298088139889</v>
+        <v>223.9032825564174</v>
       </c>
       <c r="O2" t="n">
-        <v>15.04320737541994</v>
+        <v>14.96339809523283</v>
       </c>
       <c r="P2" t="n">
-        <v>409.3405378416252</v>
+        <v>409.4487340220953</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22440,28 +22636,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2776599985093718</v>
+        <v>0.2756221435039231</v>
       </c>
       <c r="J3" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01941417611742668</v>
+        <v>0.01961857453086002</v>
       </c>
       <c r="M3" t="n">
-        <v>11.56663573608179</v>
+        <v>11.43749029991602</v>
       </c>
       <c r="N3" t="n">
-        <v>225.551358300341</v>
+        <v>222.8274792049837</v>
       </c>
       <c r="O3" t="n">
-        <v>15.0183673646752</v>
+        <v>14.92740698195717</v>
       </c>
       <c r="P3" t="n">
-        <v>419.7156331407889</v>
+        <v>419.734882710226</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22518,28 +22714,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4043021170427092</v>
+        <v>0.4099200670024161</v>
       </c>
       <c r="J4" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03438310756672169</v>
+        <v>0.03619349436496611</v>
       </c>
       <c r="M4" t="n">
-        <v>12.20932208440145</v>
+        <v>12.07791384884922</v>
       </c>
       <c r="N4" t="n">
-        <v>254.1124802760512</v>
+        <v>250.9449817261113</v>
       </c>
       <c r="O4" t="n">
-        <v>15.94090588003239</v>
+        <v>15.8412430612661</v>
       </c>
       <c r="P4" t="n">
-        <v>423.3183054757315</v>
+        <v>423.2625428811218</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22596,28 +22792,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3696388937254872</v>
+        <v>0.3784174058915223</v>
       </c>
       <c r="J5" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02899107525766642</v>
+        <v>0.03108083424500907</v>
       </c>
       <c r="M5" t="n">
-        <v>12.90806731892747</v>
+        <v>12.8039987884229</v>
       </c>
       <c r="N5" t="n">
-        <v>269.5570866025786</v>
+        <v>266.5736719740172</v>
       </c>
       <c r="O5" t="n">
-        <v>16.41819376796908</v>
+        <v>16.32708400094815</v>
       </c>
       <c r="P5" t="n">
-        <v>427.3770895485696</v>
+        <v>427.2961658596481</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22674,28 +22870,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4552618921814075</v>
+        <v>0.4684693190044143</v>
       </c>
       <c r="J6" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K6" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03968852677513612</v>
+        <v>0.04290032628575025</v>
       </c>
       <c r="M6" t="n">
-        <v>12.7911184975689</v>
+        <v>12.69924963067241</v>
       </c>
       <c r="N6" t="n">
-        <v>288.1862610774271</v>
+        <v>285.1297107488566</v>
       </c>
       <c r="O6" t="n">
-        <v>16.97604963109578</v>
+        <v>16.88578427994556</v>
       </c>
       <c r="P6" t="n">
-        <v>425.8324833168669</v>
+        <v>425.7061515887399</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22752,28 +22948,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4752915122127709</v>
+        <v>0.5022606819663529</v>
       </c>
       <c r="J7" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K7" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05042623546982083</v>
+        <v>0.05699405162118232</v>
       </c>
       <c r="M7" t="n">
-        <v>12.10658077603174</v>
+        <v>12.09334589108164</v>
       </c>
       <c r="N7" t="n">
-        <v>253.1491627217281</v>
+        <v>251.9449677631083</v>
       </c>
       <c r="O7" t="n">
-        <v>15.91066191966029</v>
+        <v>15.8727744192094</v>
       </c>
       <c r="P7" t="n">
-        <v>421.313276441587</v>
+        <v>421.0702101450278</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22830,28 +23026,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5410368799984134</v>
+        <v>0.5598436976721662</v>
       </c>
       <c r="J8" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K8" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06362487965439279</v>
+        <v>0.06923333358648109</v>
       </c>
       <c r="M8" t="n">
-        <v>12.08348038661823</v>
+        <v>12.02828452435855</v>
       </c>
       <c r="N8" t="n">
-        <v>257.6788590333758</v>
+        <v>255.5358175772037</v>
       </c>
       <c r="O8" t="n">
-        <v>16.0523786098315</v>
+        <v>15.98548771783969</v>
       </c>
       <c r="P8" t="n">
-        <v>418.4407066337758</v>
+        <v>418.2703772019126</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22908,28 +23104,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5466573447206189</v>
+        <v>0.5583331977494831</v>
       </c>
       <c r="J9" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05669261643071799</v>
+        <v>0.06032829748334845</v>
       </c>
       <c r="M9" t="n">
-        <v>12.79635360474044</v>
+        <v>12.70327982684966</v>
       </c>
       <c r="N9" t="n">
-        <v>298.4232814142304</v>
+        <v>295.4197663661728</v>
       </c>
       <c r="O9" t="n">
-        <v>17.27493216815135</v>
+        <v>17.1877795647423</v>
       </c>
       <c r="P9" t="n">
-        <v>415.6102121436355</v>
+        <v>415.5051003486345</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22986,28 +23182,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7787504796755589</v>
+        <v>0.7754347655914329</v>
       </c>
       <c r="J10" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1030175656182183</v>
+        <v>0.1046752519472539</v>
       </c>
       <c r="M10" t="n">
-        <v>13.62388282749649</v>
+        <v>13.48293680911213</v>
       </c>
       <c r="N10" t="n">
-        <v>318.744241514286</v>
+        <v>315.108749848043</v>
       </c>
       <c r="O10" t="n">
-        <v>17.85340980077156</v>
+        <v>17.75130276481259</v>
       </c>
       <c r="P10" t="n">
-        <v>409.1414951872306</v>
+        <v>409.1707180115209</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23064,28 +23260,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8047367314137059</v>
+        <v>0.7985456799886363</v>
       </c>
       <c r="J11" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1099639961598893</v>
+        <v>0.110978052925137</v>
       </c>
       <c r="M11" t="n">
-        <v>13.35776352010723</v>
+        <v>13.23642621736413</v>
       </c>
       <c r="N11" t="n">
-        <v>309.15669205618</v>
+        <v>305.7968335457679</v>
       </c>
       <c r="O11" t="n">
-        <v>17.58285221618438</v>
+        <v>17.48704759374114</v>
       </c>
       <c r="P11" t="n">
-        <v>407.7009460250501</v>
+        <v>407.756423844651</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23142,28 +23338,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6613469560780764</v>
+        <v>0.6571276613415267</v>
       </c>
       <c r="J12" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K12" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07963237763182052</v>
+        <v>0.08055142693216133</v>
       </c>
       <c r="M12" t="n">
-        <v>13.45325379407569</v>
+        <v>13.32501170082458</v>
       </c>
       <c r="N12" t="n">
-        <v>296.3088975738899</v>
+        <v>293.0206182626214</v>
       </c>
       <c r="O12" t="n">
-        <v>17.21362534662266</v>
+        <v>17.11784502391061</v>
       </c>
       <c r="P12" t="n">
-        <v>408.1692243717285</v>
+        <v>408.207767485313</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23220,28 +23416,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6035495746200227</v>
+        <v>0.6065104955795896</v>
       </c>
       <c r="J13" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K13" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06507946216033267</v>
+        <v>0.06718549674074259</v>
       </c>
       <c r="M13" t="n">
-        <v>14.50699560015904</v>
+        <v>14.39244251203981</v>
       </c>
       <c r="N13" t="n">
-        <v>318.9546573794049</v>
+        <v>315.567865948841</v>
       </c>
       <c r="O13" t="n">
-        <v>17.85930170469733</v>
+        <v>17.76422995654022</v>
       </c>
       <c r="P13" t="n">
-        <v>406.8970897642415</v>
+        <v>406.8706656480101</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23298,28 +23494,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6517364726365479</v>
+        <v>0.6567252211171305</v>
       </c>
       <c r="J14" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07833594795186105</v>
+        <v>0.08123001063860658</v>
       </c>
       <c r="M14" t="n">
-        <v>14.44083489662889</v>
+        <v>14.33113005316023</v>
       </c>
       <c r="N14" t="n">
-        <v>311.2917188911432</v>
+        <v>308.0423663293925</v>
       </c>
       <c r="O14" t="n">
-        <v>17.64346108027399</v>
+        <v>17.5511357561097</v>
       </c>
       <c r="P14" t="n">
-        <v>404.4132361510596</v>
+        <v>404.3696998735458</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23376,28 +23572,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5064037987929214</v>
+        <v>0.5114193977770682</v>
       </c>
       <c r="J15" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K15" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05505550305059614</v>
+        <v>0.05677326501585211</v>
       </c>
       <c r="M15" t="n">
-        <v>12.55586675200922</v>
+        <v>12.502597774268</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7085719831411</v>
+        <v>261.2487232890605</v>
       </c>
       <c r="O15" t="n">
-        <v>16.20828713908848</v>
+        <v>16.16319038089512</v>
       </c>
       <c r="P15" t="n">
-        <v>403.9729062570543</v>
+        <v>403.9273098286207</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23454,28 +23650,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3194184796293553</v>
+        <v>0.3263337085691558</v>
       </c>
       <c r="J16" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K16" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01744295180326538</v>
+        <v>0.01842454208207278</v>
       </c>
       <c r="M16" t="n">
-        <v>14.76068018507244</v>
+        <v>14.70452977025293</v>
       </c>
       <c r="N16" t="n">
-        <v>341.9702990487407</v>
+        <v>340.1206969814435</v>
       </c>
       <c r="O16" t="n">
-        <v>18.49243896971788</v>
+        <v>18.44236148060881</v>
       </c>
       <c r="P16" t="n">
-        <v>403.4630313955986</v>
+        <v>403.4002935376478</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23532,28 +23728,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09282210764424303</v>
+        <v>-0.08078382205233504</v>
       </c>
       <c r="J17" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K17" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001492873343480805</v>
+        <v>0.001147852125316873</v>
       </c>
       <c r="M17" t="n">
-        <v>15.05519677138707</v>
+        <v>15.01276213581496</v>
       </c>
       <c r="N17" t="n">
-        <v>349.33729845115</v>
+        <v>347.5506931470865</v>
       </c>
       <c r="O17" t="n">
-        <v>18.6905670981688</v>
+        <v>18.64271152882773</v>
       </c>
       <c r="P17" t="n">
-        <v>401.4418060668214</v>
+        <v>401.3378455020266</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23607,7 +23803,7 @@
         <v>0.2151088282322954</v>
       </c>
       <c r="J18" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K18" t="n">
         <v>160</v>
@@ -23676,28 +23872,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1724640872604703</v>
+        <v>0.1749391420927353</v>
       </c>
       <c r="J19" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K19" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004353467790916166</v>
+        <v>0.0045464741819492</v>
       </c>
       <c r="M19" t="n">
-        <v>15.94325480418296</v>
+        <v>15.84871062470826</v>
       </c>
       <c r="N19" t="n">
-        <v>393.2157907326212</v>
+        <v>390.6351307352289</v>
       </c>
       <c r="O19" t="n">
-        <v>19.8296694559597</v>
+        <v>19.76449166397226</v>
       </c>
       <c r="P19" t="n">
-        <v>390.5549992893297</v>
+        <v>390.5320952761579</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23754,28 +23950,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4178596393877677</v>
+        <v>0.4234423664902656</v>
       </c>
       <c r="J20" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03568666989881275</v>
+        <v>0.03707723114464601</v>
       </c>
       <c r="M20" t="n">
-        <v>13.40243039990895</v>
+        <v>13.34423619528402</v>
       </c>
       <c r="N20" t="n">
-        <v>278.4903353350442</v>
+        <v>276.8629301195542</v>
       </c>
       <c r="O20" t="n">
-        <v>16.68802970200629</v>
+        <v>16.6391986020828</v>
       </c>
       <c r="P20" t="n">
-        <v>384.9538412899334</v>
+        <v>384.9020629551453</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23832,28 +24028,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5484593956065629</v>
+        <v>0.5590665160684355</v>
       </c>
       <c r="J21" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K21" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07369074841140044</v>
+        <v>0.077106092102735</v>
       </c>
       <c r="M21" t="n">
-        <v>11.9925919493099</v>
+        <v>11.9676275682582</v>
       </c>
       <c r="N21" t="n">
-        <v>229.3321618960989</v>
+        <v>228.4060329353535</v>
       </c>
       <c r="O21" t="n">
-        <v>15.14371691151478</v>
+        <v>15.11310798397714</v>
       </c>
       <c r="P21" t="n">
-        <v>381.839751360265</v>
+        <v>381.7422776881795</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23910,28 +24106,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4434580599713069</v>
+        <v>0.4556748961362792</v>
       </c>
       <c r="J22" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K22" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05200128554678762</v>
+        <v>0.05523421508761917</v>
       </c>
       <c r="M22" t="n">
-        <v>11.4334958948551</v>
+        <v>11.4232046006302</v>
       </c>
       <c r="N22" t="n">
-        <v>221.2234912032131</v>
+        <v>220.5673902677595</v>
       </c>
       <c r="O22" t="n">
-        <v>14.87358367049492</v>
+        <v>14.8515113799155</v>
       </c>
       <c r="P22" t="n">
-        <v>382.2936839694685</v>
+        <v>382.1827521511635</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23988,28 +24184,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3456962666109329</v>
+        <v>0.3511000019437548</v>
       </c>
       <c r="J23" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K23" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0313440788667213</v>
+        <v>0.0326864123947932</v>
       </c>
       <c r="M23" t="n">
-        <v>12.06802114168887</v>
+        <v>12.02293324047303</v>
       </c>
       <c r="N23" t="n">
-        <v>220.5821144452664</v>
+        <v>219.3555638067393</v>
       </c>
       <c r="O23" t="n">
-        <v>14.85200708474334</v>
+        <v>14.81065710246305</v>
       </c>
       <c r="P23" t="n">
-        <v>382.4679080514173</v>
+        <v>382.4178648011156</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24066,28 +24262,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5333522712229187</v>
+        <v>0.5377792255707141</v>
       </c>
       <c r="J24" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K24" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07514292729659011</v>
+        <v>0.07719019768817892</v>
       </c>
       <c r="M24" t="n">
-        <v>11.75451766664608</v>
+        <v>11.70640030856857</v>
       </c>
       <c r="N24" t="n">
-        <v>208.9957889287082</v>
+        <v>207.8268220118207</v>
       </c>
       <c r="O24" t="n">
-        <v>14.45668665112128</v>
+        <v>14.41619998514937</v>
       </c>
       <c r="P24" t="n">
-        <v>378.4055547758737</v>
+        <v>378.3649466209041</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24144,28 +24340,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4928698127742082</v>
+        <v>0.5009605316525569</v>
       </c>
       <c r="J25" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K25" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06860637469437392</v>
+        <v>0.07144074019530033</v>
       </c>
       <c r="M25" t="n">
-        <v>11.73374608694614</v>
+        <v>11.70400104141206</v>
       </c>
       <c r="N25" t="n">
-        <v>199.6682976819507</v>
+        <v>198.7739001709989</v>
       </c>
       <c r="O25" t="n">
-        <v>14.13040330924601</v>
+        <v>14.09871980610292</v>
       </c>
       <c r="P25" t="n">
-        <v>377.6081261714482</v>
+        <v>377.5338721173197</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24222,28 +24418,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3499101028833709</v>
+        <v>0.3546171462250863</v>
       </c>
       <c r="J26" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K26" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03807388059897854</v>
+        <v>0.03950875820943966</v>
       </c>
       <c r="M26" t="n">
-        <v>11.7165849975913</v>
+        <v>11.67096137434809</v>
       </c>
       <c r="N26" t="n">
-        <v>188.3380009722349</v>
+        <v>187.3058389898597</v>
       </c>
       <c r="O26" t="n">
-        <v>13.72362929301994</v>
+        <v>13.68597234360276</v>
       </c>
       <c r="P26" t="n">
-        <v>378.086169045334</v>
+        <v>378.0429571745297</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24300,28 +24496,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06933931348565789</v>
+        <v>0.07499326165053026</v>
       </c>
       <c r="J27" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K27" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001353266605415682</v>
+        <v>0.001601384343846157</v>
       </c>
       <c r="M27" t="n">
-        <v>12.12056348131574</v>
+        <v>12.07854052707173</v>
       </c>
       <c r="N27" t="n">
-        <v>211.807448776928</v>
+        <v>210.6912937344451</v>
       </c>
       <c r="O27" t="n">
-        <v>14.55360604032306</v>
+        <v>14.51520904894053</v>
       </c>
       <c r="P27" t="n">
-        <v>380.4131771960038</v>
+        <v>380.3608127300075</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24378,28 +24574,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05327072686090555</v>
+        <v>0.05811499001600833</v>
       </c>
       <c r="J28" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K28" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0007072565240567874</v>
+        <v>0.0008515943832307915</v>
       </c>
       <c r="M28" t="n">
-        <v>12.8105933196773</v>
+        <v>12.75915618062523</v>
       </c>
       <c r="N28" t="n">
-        <v>240.7360973784883</v>
+        <v>239.4094283481169</v>
       </c>
       <c r="O28" t="n">
-        <v>15.51567263699799</v>
+        <v>15.47286102658836</v>
       </c>
       <c r="P28" t="n">
-        <v>376.5155656669604</v>
+        <v>376.4706131079441</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24456,28 +24652,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02822629344796619</v>
+        <v>-0.01917213074476174</v>
       </c>
       <c r="J29" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000155483543103685</v>
+        <v>7.25386381620341e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>14.16328205461845</v>
+        <v>14.12708432132237</v>
       </c>
       <c r="N29" t="n">
-        <v>304.6795492416946</v>
+        <v>303.2596067549192</v>
       </c>
       <c r="O29" t="n">
-        <v>17.45507230697411</v>
+        <v>17.41435059813943</v>
       </c>
       <c r="P29" t="n">
-        <v>370.0313069088475</v>
+        <v>369.9469847888442</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24534,28 +24730,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1637065161394356</v>
+        <v>-0.1616309143781798</v>
       </c>
       <c r="J30" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004303499184386328</v>
+        <v>0.004248048660627224</v>
       </c>
       <c r="M30" t="n">
-        <v>15.62970673837558</v>
+        <v>15.546521403904</v>
       </c>
       <c r="N30" t="n">
-        <v>369.2241860291681</v>
+        <v>367.0203876931623</v>
       </c>
       <c r="O30" t="n">
-        <v>19.21520715551014</v>
+        <v>19.15777616773832</v>
       </c>
       <c r="P30" t="n">
-        <v>360.4744790262834</v>
+        <v>360.4551783087563</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24612,28 +24808,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3761791700949542</v>
+        <v>-0.373154194615187</v>
       </c>
       <c r="J31" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K31" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02595844406299619</v>
+        <v>0.02588073562604998</v>
       </c>
       <c r="M31" t="n">
-        <v>14.02734362964114</v>
+        <v>13.95649991852969</v>
       </c>
       <c r="N31" t="n">
-        <v>311.1026981759934</v>
+        <v>309.2347217095822</v>
       </c>
       <c r="O31" t="n">
-        <v>17.63810358785755</v>
+        <v>17.58507098960883</v>
       </c>
       <c r="P31" t="n">
-        <v>353.6675352279777</v>
+        <v>353.6392959621286</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24690,28 +24886,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.355287947986986</v>
+        <v>-0.3502397372797738</v>
       </c>
       <c r="J32" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K32" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03020184385049196</v>
+        <v>0.02973431652899905</v>
       </c>
       <c r="M32" t="n">
-        <v>11.86922201776839</v>
+        <v>11.81874047133318</v>
       </c>
       <c r="N32" t="n">
-        <v>234.7978138288586</v>
+        <v>233.4618281880126</v>
       </c>
       <c r="O32" t="n">
-        <v>15.32311371193396</v>
+        <v>15.27945771904267</v>
       </c>
       <c r="P32" t="n">
-        <v>351.4797807265726</v>
+        <v>351.4318866875178</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -24768,28 +24964,28 @@
         <v>0.0363</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7739526307549078</v>
+        <v>-0.788740471956341</v>
       </c>
       <c r="J33" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K33" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.09115859686326833</v>
+        <v>0.09535711618856313</v>
       </c>
       <c r="M33" t="n">
-        <v>14.76399622904734</v>
+        <v>14.75111915004147</v>
       </c>
       <c r="N33" t="n">
-        <v>361.8748281446357</v>
+        <v>360.2665958698707</v>
       </c>
       <c r="O33" t="n">
-        <v>19.02300786270761</v>
+        <v>18.98069007886359</v>
       </c>
       <c r="P33" t="n">
-        <v>349.4972777855202</v>
+        <v>349.6332077976934</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -24827,7 +25023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH205"/>
+  <dimension ref="A1:AH207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54935,6 +55131,270 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>-35.29138317986037,173.1597035825514</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-35.290905386817045,173.1589976049474</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-35.290404633092784,173.15832670542235</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-35.28983879834424,173.1577552463266</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-35.289263959461195,173.1571975397743</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-35.2887226092653,173.15658865462387</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>-35.288117106148555,173.15607779216586</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>-35.28750833678318,173.1555719144641</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>-35.2869009136346,173.15506397344032</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>-35.286314155056424,173.15452444977583</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>-35.285719942717854,173.15399630960235</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>-35.28513782705312,173.15344967896166</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>-35.28456200196087,173.1528948174955</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>-35.29140104900826,173.1596762778685</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-35.29090801185918,173.15899359377403</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-35.29037574439816,173.15837084867616</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-35.28984934125842,173.15773913624284</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>-35.289304371094275,173.1571357887784</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-35.2887296967358,173.15657782460275</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-35.28813319351766,173.15605320985418</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-35.28753010527166,173.15553865114913</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>-35.28690698853918,173.1550546907023</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>-35.286323611117396,173.15451000047423</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>-35.28574531710254,173.1539575363663</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>-35.28518718098784,173.1533742638192</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>-35.284614668033406,173.15281457354155</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>-35.284007729281186,173.1523140323767</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>-35.28342313392665,173.15177709975083</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>-35.28280282201056,173.15128623355088</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>-35.28160661346584,173.1502388206507</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>-35.28106088749182,173.14963767025947</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>-35.28052255467502,173.14902558401744</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>-35.27995348216816,173.14845893703986</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>-35.27933884777836,173.14795964231246</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>-35.278772808633846,173.14738849920857</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>-35.27821583115053,173.1468039536148</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>-35.27761438242451,173.14628514790047</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>-35.27702856310732,173.14575203349494</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>-35.27645784326467,173.1451977779101</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>-35.275893177201816,173.14462506956414</t>
+        </is>
+      </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>-35.27523747750136,173.1441684493805</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>-35.27463005488814,173.14364870738908</t>
+        </is>
+      </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>-35.274094156921194,173.14303545021374</t>
+        </is>
+      </c>
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>-35.273381128158974,173.14265376711796</t>
+        </is>
+      </c>
+      <c r="AH207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH207"/>
+  <dimension ref="A1:AH209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20184,7 +20184,9 @@
       <c r="Q207" t="n">
         <v>408.17</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>385.03</v>
+      </c>
       <c r="S207" t="n">
         <v>396.9058823529412</v>
       </c>
@@ -20231,6 +20233,218 @@
         <v>317.92</v>
       </c>
       <c r="AH207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>420.1166666666667</v>
+      </c>
+      <c r="C208" t="n">
+        <v>434.0766666666667</v>
+      </c>
+      <c r="D208" t="n">
+        <v>448.6842857142857</v>
+      </c>
+      <c r="E208" t="n">
+        <v>453.7542857142857</v>
+      </c>
+      <c r="F208" t="n">
+        <v>438.2942857142857</v>
+      </c>
+      <c r="G208" t="n">
+        <v>426.01</v>
+      </c>
+      <c r="H208" t="n">
+        <v>436.1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>459.01</v>
+      </c>
+      <c r="J208" t="n">
+        <v>466.78</v>
+      </c>
+      <c r="K208" t="n">
+        <v>448.8311111111111</v>
+      </c>
+      <c r="L208" t="n">
+        <v>432.1511111111111</v>
+      </c>
+      <c r="M208" t="n">
+        <v>432.6242857142857</v>
+      </c>
+      <c r="N208" t="n">
+        <v>415.1266666666667</v>
+      </c>
+      <c r="O208" t="n">
+        <v>432.3242857142857</v>
+      </c>
+      <c r="P208" t="n">
+        <v>435.4666666666667</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>420.27</v>
+      </c>
+      <c r="R208" t="n">
+        <v>409.195</v>
+      </c>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="n">
+        <v>419.8066666666667</v>
+      </c>
+      <c r="U208" t="n">
+        <v>400.2842857142857</v>
+      </c>
+      <c r="V208" t="n">
+        <v>400.94</v>
+      </c>
+      <c r="W208" t="n">
+        <v>405.74</v>
+      </c>
+      <c r="X208" t="n">
+        <v>412.15</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>375.96</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>358.08</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>344.6142857142857</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>356.1942857142857</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>408.15</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>398.73</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>323.81</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>320.0742857142857</v>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:18:06+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>419.4366666666667</v>
+      </c>
+      <c r="C209" t="n">
+        <v>433.6566666666667</v>
+      </c>
+      <c r="D209" t="n">
+        <v>438.3342857142857</v>
+      </c>
+      <c r="E209" t="n">
+        <v>444.0642857142857</v>
+      </c>
+      <c r="F209" t="n">
+        <v>449.1642857142857</v>
+      </c>
+      <c r="G209" t="n">
+        <v>447.71</v>
+      </c>
+      <c r="H209" t="n">
+        <v>447.6</v>
+      </c>
+      <c r="I209" t="n">
+        <v>453.91</v>
+      </c>
+      <c r="J209" t="n">
+        <v>440.69</v>
+      </c>
+      <c r="K209" t="n">
+        <v>435.9877777777778</v>
+      </c>
+      <c r="L209" t="n">
+        <v>430.9477777777778</v>
+      </c>
+      <c r="M209" t="n">
+        <v>435.1642857142857</v>
+      </c>
+      <c r="N209" t="n">
+        <v>439.2966666666667</v>
+      </c>
+      <c r="O209" t="n">
+        <v>428.1942857142857</v>
+      </c>
+      <c r="P209" t="n">
+        <v>426.5966666666667</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>424.92</v>
+      </c>
+      <c r="R209" t="n">
+        <v>392.655</v>
+      </c>
+      <c r="S209" t="n">
+        <v>404.7476470588235</v>
+      </c>
+      <c r="T209" t="n">
+        <v>415.1766666666667</v>
+      </c>
+      <c r="U209" t="n">
+        <v>415.3242857142857</v>
+      </c>
+      <c r="V209" t="n">
+        <v>408.85</v>
+      </c>
+      <c r="W209" t="n">
+        <v>409.2</v>
+      </c>
+      <c r="X209" t="n">
+        <v>406.2</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>402.49</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>389.47</v>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="n">
+        <v>388.8242857142857</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>378.19</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>362.76</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>357.0042857142857</v>
+      </c>
+      <c r="AH209" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20247,7 +20461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B213"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22385,6 +22599,26 @@
       </c>
       <c r="B213" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -22558,28 +22792,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2213786790221945</v>
+        <v>0.2317444238457262</v>
       </c>
       <c r="J2" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01251907407055208</v>
+        <v>0.01404105663800148</v>
       </c>
       <c r="M2" t="n">
-        <v>11.52918030915652</v>
+        <v>11.44377492909422</v>
       </c>
       <c r="N2" t="n">
-        <v>223.9032825564174</v>
+        <v>221.495965763262</v>
       </c>
       <c r="O2" t="n">
-        <v>14.96339809523283</v>
+        <v>14.88274053268624</v>
       </c>
       <c r="P2" t="n">
-        <v>409.4487340220953</v>
+        <v>409.3508744072968</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22636,28 +22870,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2756221435039231</v>
+        <v>0.2910522062318415</v>
       </c>
       <c r="J3" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01961857453086002</v>
+        <v>0.02230539958786582</v>
       </c>
       <c r="M3" t="n">
-        <v>11.43749029991602</v>
+        <v>11.38250478734418</v>
       </c>
       <c r="N3" t="n">
-        <v>222.8274792049837</v>
+        <v>220.7249410277471</v>
       </c>
       <c r="O3" t="n">
-        <v>14.92740698195717</v>
+        <v>14.85681463261042</v>
       </c>
       <c r="P3" t="n">
-        <v>419.734882710226</v>
+        <v>419.588254673887</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22714,28 +22948,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4099200670024161</v>
+        <v>0.4327699992507392</v>
       </c>
       <c r="J4" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K4" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03619349436496611</v>
+        <v>0.04092780136369356</v>
       </c>
       <c r="M4" t="n">
-        <v>12.07791384884922</v>
+        <v>12.02481913261658</v>
       </c>
       <c r="N4" t="n">
-        <v>250.9449817261113</v>
+        <v>249.2068069037607</v>
       </c>
       <c r="O4" t="n">
-        <v>15.8412430612661</v>
+        <v>15.78628540549551</v>
       </c>
       <c r="P4" t="n">
-        <v>423.2625428811218</v>
+        <v>423.034110382232</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22792,28 +23026,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3784174058915223</v>
+        <v>0.4038962827440565</v>
       </c>
       <c r="J5" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03108083424500907</v>
+        <v>0.03586584516232882</v>
       </c>
       <c r="M5" t="n">
-        <v>12.8039987884229</v>
+        <v>12.79439925289486</v>
       </c>
       <c r="N5" t="n">
-        <v>266.5736719740172</v>
+        <v>265.3138967628695</v>
       </c>
       <c r="O5" t="n">
-        <v>16.32708400094815</v>
+        <v>16.28845900516281</v>
       </c>
       <c r="P5" t="n">
-        <v>427.2961658596481</v>
+        <v>427.0601335520399</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22870,28 +23104,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4684693190044143</v>
+        <v>0.4818412261992721</v>
       </c>
       <c r="J6" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K6" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04290032628575025</v>
+        <v>0.04624797371824596</v>
       </c>
       <c r="M6" t="n">
-        <v>12.69924963067241</v>
+        <v>12.60986100182878</v>
       </c>
       <c r="N6" t="n">
-        <v>285.1297107488566</v>
+        <v>282.3874872148259</v>
       </c>
       <c r="O6" t="n">
-        <v>16.88578427994556</v>
+        <v>16.80438892714715</v>
       </c>
       <c r="P6" t="n">
-        <v>425.7061515887399</v>
+        <v>425.5775977746055</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22948,28 +23182,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5022606819663529</v>
+        <v>0.5082083610327671</v>
       </c>
       <c r="J7" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K7" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05699405162118232</v>
+        <v>0.05934197782118089</v>
       </c>
       <c r="M7" t="n">
-        <v>12.09334589108164</v>
+        <v>12.07700320418892</v>
       </c>
       <c r="N7" t="n">
-        <v>251.9449677631083</v>
+        <v>250.5119163624056</v>
       </c>
       <c r="O7" t="n">
-        <v>15.8727744192094</v>
+        <v>15.82756823906963</v>
       </c>
       <c r="P7" t="n">
-        <v>421.0702101450278</v>
+        <v>421.016199112089</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23026,28 +23260,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5598436976721662</v>
+        <v>0.5791872119154973</v>
       </c>
       <c r="J8" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K8" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06923333358648109</v>
+        <v>0.07509407225527753</v>
       </c>
       <c r="M8" t="n">
-        <v>12.02828452435855</v>
+        <v>11.97640596578985</v>
       </c>
       <c r="N8" t="n">
-        <v>255.5358175772037</v>
+        <v>253.8940732026331</v>
       </c>
       <c r="O8" t="n">
-        <v>15.98548771783969</v>
+        <v>15.93405388476621</v>
       </c>
       <c r="P8" t="n">
-        <v>418.2703772019126</v>
+        <v>418.0941913041856</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23104,28 +23338,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5583331977494831</v>
+        <v>0.6133152339076484</v>
       </c>
       <c r="J9" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K9" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06032829748334845</v>
+        <v>0.07179570068564645</v>
       </c>
       <c r="M9" t="n">
-        <v>12.70327982684966</v>
+        <v>12.81284502812864</v>
       </c>
       <c r="N9" t="n">
-        <v>295.4197663661728</v>
+        <v>299.7680120535242</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1877795647423</v>
+        <v>17.31380986535096</v>
       </c>
       <c r="P9" t="n">
-        <v>415.5051003486345</v>
+        <v>415.0076837174057</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23182,28 +23416,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7754347655914329</v>
+        <v>0.8278176238161046</v>
       </c>
       <c r="J10" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1046752519472539</v>
+        <v>0.1174413686904657</v>
       </c>
       <c r="M10" t="n">
-        <v>13.48293680911213</v>
+        <v>13.63726573505716</v>
       </c>
       <c r="N10" t="n">
-        <v>315.108749848043</v>
+        <v>320.0358451671365</v>
       </c>
       <c r="O10" t="n">
-        <v>17.75130276481259</v>
+        <v>17.88954569482234</v>
       </c>
       <c r="P10" t="n">
-        <v>409.1707180115209</v>
+        <v>408.7063891806739</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23260,28 +23494,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7985456799886363</v>
+        <v>0.8282044539350762</v>
       </c>
       <c r="J11" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L11" t="n">
-        <v>0.110978052925137</v>
+        <v>0.1201612790656094</v>
       </c>
       <c r="M11" t="n">
-        <v>13.23642621736413</v>
+        <v>13.25741839887456</v>
       </c>
       <c r="N11" t="n">
-        <v>305.7968335457679</v>
+        <v>304.9595422614519</v>
       </c>
       <c r="O11" t="n">
-        <v>17.48704759374114</v>
+        <v>17.4630908564736</v>
       </c>
       <c r="P11" t="n">
-        <v>407.756423844651</v>
+        <v>407.4891838912035</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23338,28 +23572,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6571276613415267</v>
+        <v>0.6706505029199288</v>
       </c>
       <c r="J12" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K12" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08055142693216133</v>
+        <v>0.0854278375679719</v>
       </c>
       <c r="M12" t="n">
-        <v>13.32501170082458</v>
+        <v>13.24352438373266</v>
       </c>
       <c r="N12" t="n">
-        <v>293.0206182626214</v>
+        <v>290.1513688042655</v>
       </c>
       <c r="O12" t="n">
-        <v>17.11784502391061</v>
+        <v>17.03383012725751</v>
       </c>
       <c r="P12" t="n">
-        <v>408.207767485313</v>
+        <v>408.0833369690943</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23416,28 +23650,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6065104955795896</v>
+        <v>0.629926137604131</v>
       </c>
       <c r="J13" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06718549674074259</v>
+        <v>0.07343178776085979</v>
       </c>
       <c r="M13" t="n">
-        <v>14.39244251203981</v>
+        <v>14.35879535632926</v>
       </c>
       <c r="N13" t="n">
-        <v>315.567865948841</v>
+        <v>313.4314684925628</v>
       </c>
       <c r="O13" t="n">
-        <v>17.76422995654022</v>
+        <v>17.70399583406421</v>
       </c>
       <c r="P13" t="n">
-        <v>406.8706656480101</v>
+        <v>406.6616225597207</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23494,28 +23728,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6567252211171305</v>
+        <v>0.6687578294746787</v>
       </c>
       <c r="J14" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08123001063860658</v>
+        <v>0.08536433536428922</v>
       </c>
       <c r="M14" t="n">
-        <v>14.33113005316023</v>
+        <v>14.31196023211198</v>
       </c>
       <c r="N14" t="n">
-        <v>308.0423663293925</v>
+        <v>306.5826354943065</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5511357561097</v>
+        <v>17.50950129199306</v>
       </c>
       <c r="P14" t="n">
-        <v>404.3696998735458</v>
+        <v>404.2643184982941</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23572,28 +23806,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5114193977770682</v>
+        <v>0.5404177213931948</v>
       </c>
       <c r="J15" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K15" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05677326501585211</v>
+        <v>0.06405720751252497</v>
       </c>
       <c r="M15" t="n">
-        <v>12.502597774268</v>
+        <v>12.47958199778674</v>
       </c>
       <c r="N15" t="n">
-        <v>261.2487232890605</v>
+        <v>260.1625430371861</v>
       </c>
       <c r="O15" t="n">
-        <v>16.16319038089512</v>
+        <v>16.12955495471546</v>
       </c>
       <c r="P15" t="n">
-        <v>403.9273098286207</v>
+        <v>403.6627023404354</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23650,28 +23884,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3263337085691558</v>
+        <v>0.3693922264285656</v>
       </c>
       <c r="J16" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K16" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01842454208207278</v>
+        <v>0.02379120085673192</v>
       </c>
       <c r="M16" t="n">
-        <v>14.70452977025293</v>
+        <v>14.73235236633916</v>
       </c>
       <c r="N16" t="n">
-        <v>340.1206969814435</v>
+        <v>340.5236244021712</v>
       </c>
       <c r="O16" t="n">
-        <v>18.44236148060881</v>
+        <v>18.45328221217492</v>
       </c>
       <c r="P16" t="n">
-        <v>403.4002935376478</v>
+        <v>403.0082202472308</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23728,28 +23962,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.08078382205233504</v>
+        <v>-0.02148267518117655</v>
       </c>
       <c r="J17" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001147852125316873</v>
+        <v>8.219528511843599e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>15.01276213581496</v>
+        <v>15.10741429791928</v>
       </c>
       <c r="N17" t="n">
-        <v>347.5506931470865</v>
+        <v>349.9078522340872</v>
       </c>
       <c r="O17" t="n">
-        <v>18.64271152882773</v>
+        <v>18.70582401911467</v>
       </c>
       <c r="P17" t="n">
-        <v>401.3378455020266</v>
+        <v>400.8238189947701</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23800,28 +24034,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2151088282322954</v>
+        <v>0.2343405286047639</v>
       </c>
       <c r="J18" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K18" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005398901745804485</v>
+        <v>0.00666526808598189</v>
       </c>
       <c r="M18" t="n">
-        <v>17.83738931360977</v>
+        <v>17.66970235377866</v>
       </c>
       <c r="N18" t="n">
-        <v>508.1501740698581</v>
+        <v>501.1524528638107</v>
       </c>
       <c r="O18" t="n">
-        <v>22.54218654145729</v>
+        <v>22.38643457238804</v>
       </c>
       <c r="P18" t="n">
-        <v>384.7704729447896</v>
+        <v>384.6023706206748</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23872,28 +24106,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1749391420927353</v>
+        <v>0.1873760519581109</v>
       </c>
       <c r="J19" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0045464741819492</v>
+        <v>0.005282262286360861</v>
       </c>
       <c r="M19" t="n">
-        <v>15.84871062470826</v>
+        <v>15.79911215601679</v>
       </c>
       <c r="N19" t="n">
-        <v>390.6351307352289</v>
+        <v>388.6693042172254</v>
       </c>
       <c r="O19" t="n">
-        <v>19.76449166397226</v>
+        <v>19.71469766994223</v>
       </c>
       <c r="P19" t="n">
-        <v>390.5320952761579</v>
+        <v>390.4165249076261</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23950,28 +24184,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4234423664902656</v>
+        <v>0.473531696337964</v>
       </c>
       <c r="J20" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K20" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03707723114464601</v>
+        <v>0.0462019950039485</v>
       </c>
       <c r="M20" t="n">
-        <v>13.34423619528402</v>
+        <v>13.42525758025739</v>
       </c>
       <c r="N20" t="n">
-        <v>276.8629301195542</v>
+        <v>279.0941465107983</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6391986020828</v>
+        <v>16.7061110528692</v>
       </c>
       <c r="P20" t="n">
-        <v>384.9020629551453</v>
+        <v>384.4357294025653</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24028,28 +24262,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5590665160684355</v>
+        <v>0.5850031289713378</v>
       </c>
       <c r="J21" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K21" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L21" t="n">
-        <v>0.077106092102735</v>
+        <v>0.08498024501026646</v>
       </c>
       <c r="M21" t="n">
-        <v>11.9676275682582</v>
+        <v>11.94641092051772</v>
       </c>
       <c r="N21" t="n">
-        <v>228.4060329353535</v>
+        <v>227.8744563850849</v>
       </c>
       <c r="O21" t="n">
-        <v>15.11310798397714</v>
+        <v>15.09551113361468</v>
       </c>
       <c r="P21" t="n">
-        <v>381.7422776881795</v>
+        <v>381.5028668411384</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24106,28 +24340,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4556748961362792</v>
+        <v>0.4794650068605009</v>
       </c>
       <c r="J22" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K22" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05523421508761917</v>
+        <v>0.06179297531786787</v>
       </c>
       <c r="M22" t="n">
-        <v>11.4232046006302</v>
+        <v>11.39903287040877</v>
       </c>
       <c r="N22" t="n">
-        <v>220.5673902677595</v>
+        <v>219.4554362025602</v>
       </c>
       <c r="O22" t="n">
-        <v>14.8515113799155</v>
+        <v>14.81402835836898</v>
       </c>
       <c r="P22" t="n">
-        <v>382.1827521511635</v>
+        <v>381.96577972769</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24184,28 +24418,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3511000019437548</v>
+        <v>0.3865394549164191</v>
       </c>
       <c r="J23" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K23" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0326864123947932</v>
+        <v>0.03977591955145499</v>
       </c>
       <c r="M23" t="n">
-        <v>12.02293324047303</v>
+        <v>12.06550410587787</v>
       </c>
       <c r="N23" t="n">
-        <v>219.3555638067393</v>
+        <v>219.711234092921</v>
       </c>
       <c r="O23" t="n">
-        <v>14.81065710246305</v>
+        <v>14.82265948110935</v>
       </c>
       <c r="P23" t="n">
-        <v>382.4178648011156</v>
+        <v>382.0883381260811</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24262,28 +24496,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5377792255707141</v>
+        <v>0.5749383310011852</v>
       </c>
       <c r="J24" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K24" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07719019768817892</v>
+        <v>0.08798789147390018</v>
       </c>
       <c r="M24" t="n">
-        <v>11.70640030856857</v>
+        <v>11.75424446623252</v>
       </c>
       <c r="N24" t="n">
-        <v>207.8268220118207</v>
+        <v>208.7313390763123</v>
       </c>
       <c r="O24" t="n">
-        <v>14.41619998514937</v>
+        <v>14.44753747447337</v>
       </c>
       <c r="P24" t="n">
-        <v>378.3649466209041</v>
+        <v>378.0227952744182</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24340,28 +24574,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5009605316525569</v>
+        <v>0.498244441739613</v>
       </c>
       <c r="J25" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K25" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07144074019530033</v>
+        <v>0.0716339397518011</v>
       </c>
       <c r="M25" t="n">
-        <v>11.70400104141206</v>
+        <v>11.72355187257667</v>
       </c>
       <c r="N25" t="n">
-        <v>198.7739001709989</v>
+        <v>198.5176539940563</v>
       </c>
       <c r="O25" t="n">
-        <v>14.09871980610292</v>
+        <v>14.08962930648128</v>
       </c>
       <c r="P25" t="n">
-        <v>377.5338721173197</v>
+        <v>377.5587440417012</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24418,28 +24652,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3546171462250863</v>
+        <v>0.33957182713906</v>
       </c>
       <c r="J26" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K26" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03950875820943966</v>
+        <v>0.03675877948925821</v>
       </c>
       <c r="M26" t="n">
-        <v>11.67096137434809</v>
+        <v>11.67736888837603</v>
       </c>
       <c r="N26" t="n">
-        <v>187.3058389898597</v>
+        <v>187.3784747420558</v>
       </c>
       <c r="O26" t="n">
-        <v>13.68597234360276</v>
+        <v>13.68862574337014</v>
       </c>
       <c r="P26" t="n">
-        <v>378.0429571745297</v>
+        <v>378.1815032531001</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24496,28 +24730,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07499326165053026</v>
+        <v>0.05662832942977095</v>
       </c>
       <c r="J27" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K27" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001601384343846157</v>
+        <v>0.0009198669986445474</v>
       </c>
       <c r="M27" t="n">
-        <v>12.07854052707173</v>
+        <v>12.12297738227351</v>
       </c>
       <c r="N27" t="n">
-        <v>210.6912937344451</v>
+        <v>211.9424482040407</v>
       </c>
       <c r="O27" t="n">
-        <v>14.51520904894053</v>
+        <v>14.55824330762612</v>
       </c>
       <c r="P27" t="n">
-        <v>380.3608127300075</v>
+        <v>380.5313932320331</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24574,28 +24808,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05811499001600833</v>
+        <v>0.02199507147843307</v>
       </c>
       <c r="J28" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K28" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0008515943832307915</v>
+        <v>0.0001202749779338763</v>
       </c>
       <c r="M28" t="n">
-        <v>12.75915618062523</v>
+        <v>12.89052587057502</v>
       </c>
       <c r="N28" t="n">
-        <v>239.4094283481169</v>
+        <v>244.4898161068794</v>
       </c>
       <c r="O28" t="n">
-        <v>15.47286102658836</v>
+        <v>15.63617012272761</v>
       </c>
       <c r="P28" t="n">
-        <v>376.4706131079441</v>
+        <v>376.8069551998988</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24652,28 +24886,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01917213074476174</v>
+        <v>-0.01258316916841567</v>
       </c>
       <c r="J29" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K29" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" t="n">
-        <v>7.25386381620341e-05</v>
+        <v>3.16724565454507e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>14.12708432132237</v>
+        <v>14.15231696811307</v>
       </c>
       <c r="N29" t="n">
-        <v>303.2596067549192</v>
+        <v>302.9295698164941</v>
       </c>
       <c r="O29" t="n">
-        <v>17.41435059813943</v>
+        <v>17.40487201379241</v>
       </c>
       <c r="P29" t="n">
-        <v>369.9469847888442</v>
+        <v>369.8851868568555</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24730,28 +24964,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1616309143781798</v>
+        <v>-0.08169253641250772</v>
       </c>
       <c r="J30" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004248048660627224</v>
+        <v>0.001062113717401947</v>
       </c>
       <c r="M30" t="n">
-        <v>15.546521403904</v>
+        <v>15.78924333466276</v>
       </c>
       <c r="N30" t="n">
-        <v>367.0203876931623</v>
+        <v>380.9485959439704</v>
       </c>
       <c r="O30" t="n">
-        <v>19.15777616773832</v>
+        <v>19.51790449674274</v>
       </c>
       <c r="P30" t="n">
-        <v>360.4551783087563</v>
+        <v>359.7090624490669</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24808,28 +25042,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.373154194615187</v>
+        <v>-0.2858540889459463</v>
       </c>
       <c r="J31" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K31" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02588073562604998</v>
+        <v>0.01476631919080629</v>
       </c>
       <c r="M31" t="n">
-        <v>13.95649991852969</v>
+        <v>14.23117581654935</v>
       </c>
       <c r="N31" t="n">
-        <v>309.2347217095822</v>
+        <v>326.0826816281653</v>
       </c>
       <c r="O31" t="n">
-        <v>17.58507098960883</v>
+        <v>18.0577595960342</v>
       </c>
       <c r="P31" t="n">
-        <v>353.6392959621286</v>
+        <v>352.8213798102805</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24886,28 +25120,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3502397372797738</v>
+        <v>-0.3481216981550817</v>
       </c>
       <c r="J32" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K32" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02973431652899905</v>
+        <v>0.02954435421413126</v>
       </c>
       <c r="M32" t="n">
-        <v>11.81874047133318</v>
+        <v>11.91057502070669</v>
       </c>
       <c r="N32" t="n">
-        <v>233.4618281880126</v>
+        <v>235.2517247152275</v>
       </c>
       <c r="O32" t="n">
-        <v>15.27945771904267</v>
+        <v>15.33791787418447</v>
       </c>
       <c r="P32" t="n">
-        <v>351.4318866875178</v>
+        <v>351.4114774841327</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -24964,28 +25198,28 @@
         <v>0.0363</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.788740471956341</v>
+        <v>-0.7657719789261999</v>
       </c>
       <c r="J33" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K33" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L33" t="n">
-        <v>0.09535711618856313</v>
+        <v>0.09133612476422903</v>
       </c>
       <c r="M33" t="n">
-        <v>14.75111915004147</v>
+        <v>14.78846549922794</v>
       </c>
       <c r="N33" t="n">
-        <v>360.2665958698707</v>
+        <v>361.1528637783282</v>
       </c>
       <c r="O33" t="n">
-        <v>18.98069007886359</v>
+        <v>19.00402230524707</v>
       </c>
       <c r="P33" t="n">
-        <v>349.6332077976934</v>
+        <v>349.4209651967505</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25023,7 +25257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH207"/>
+  <dimension ref="A1:AH209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55313,7 +55547,11 @@
           <t>-35.28280282201056,173.15128623355088</t>
         </is>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>-35.282104260595986,173.15091104385854</t>
+        </is>
+      </c>
       <c r="S207" t="inlineStr">
         <is>
           <t>-35.28160661346584,173.1502388206507</t>
@@ -55390,6 +55628,342 @@
         </is>
       </c>
       <c r="AH207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>-35.291446968752325,173.15960611079515</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-35.2909523000501,173.15892591950944</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>-35.29046126935176,173.15824016245145</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>-35.289916584428696,173.15763638524456</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>-35.289256413917144,173.15720906973073</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>-35.28861410334562,173.15675445685434</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>-35.2880976438002,173.15610753159285</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>-35.287653291118794,173.1553504165502</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>-35.28712377216556,173.15472343356757</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>-35.28644958343378,173.15431750833335</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>-35.2857825286776,173.15390067527633</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>-35.28521195436321,173.15333640887022</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>-35.28454081530892,173.15292709820085</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>-35.28406973332608,173.15222111010524</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>-35.28352523102568,173.15162616041133</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>-35.28287225087843,173.15118359084832</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>-35.28224291713433,173.15070605663493</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>-35.28117222088514,173.14947307633355</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>-35.28049440653176,173.1490671978383</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>-35.27993236705632,173.14849015334505</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>-35.27939410257768,173.14787795432667</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>-35.278865071658274,173.1472520985477</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>-35.27809160918578,173.14698760136116</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>-35.27748069369382,173.1464827909411</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>-35.276856730638485,173.14599545572173</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>-35.27622835181293,173.14550353490074</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>-35.27576207838787,173.14479646707238</t>
+        </is>
+      </c>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>-35.27554523860141,173.14376608293156</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>-35.27495091507345,173.14322921567802</t>
+        </is>
+      </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>-35.27395374612684,173.1432190215113</t>
+        </is>
+      </c>
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>-35.27339437757304,173.1426364450444</t>
+        </is>
+      </c>
+      <c r="AH208" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:18:06+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>-35.29144314367109,173.15961195566666</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>-35.2909499375142,173.15892952956946</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>-35.29040305004095,173.15832912439978</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>-35.28986207793159,173.15771967397907</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>-35.28931755770302,173.15711563895712</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>-35.288736165458005,173.156567940058</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>-35.28816233076782,173.15600868662156</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>-35.28762460402996,173.1553942520557</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>-35.28697701863737,173.15494768126067</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>-35.28637734126037,173.15442789819875</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>-35.285775760097835,173.15391101800114</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>-35.28522624143578,173.15331457749443</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>-35.28467700701383,173.1527195913518</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>-35.284046227736056,173.15225633675277</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>-35.28347433551156,173.1517014039174</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>-35.28289893219696,173.1511441454656</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>-35.28214801217948,173.15084636246996</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>-35.2816516085699,173.15017230063188</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>-35.28114565466552,173.1495123515786</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>-35.2805807034147,173.1489396175764</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>-35.27997775306118,173.14842305523422</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>-35.27941395527504,173.14784860430674</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>-35.278830932062135,173.14730257022134</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>-35.278243831259104,173.14676255857185</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>-35.27761902996682,173.14627827703626</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>-35.27704138728417,173.14573386637204</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr">
+        <is>
+          <t>-35.27596276376606,173.14453409230964</t>
+        </is>
+      </c>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>-35.27536097572245,173.1440069885493</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>-35.27475349121088,173.14348732770327</t>
+        </is>
+      </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>-35.27419329919673,173.14290583225355</t>
+        </is>
+      </c>
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>-35.27362150623223,173.14233949925745</t>
+        </is>
+      </c>
+      <c r="AH209" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH209"/>
+  <dimension ref="A1:AH210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20428,7 +20428,9 @@
       <c r="AA209" t="n">
         <v>389.47</v>
       </c>
-      <c r="AB209" t="inlineStr"/>
+      <c r="AB209" t="n">
+        <v>390.7342857142857</v>
+      </c>
       <c r="AC209" t="n">
         <v>388.8242857142857</v>
       </c>
@@ -20445,6 +20447,112 @@
         <v>357.0042857142857</v>
       </c>
       <c r="AH209" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>417.36</v>
+      </c>
+      <c r="D210" t="n">
+        <v>426.0385714285715</v>
+      </c>
+      <c r="E210" t="n">
+        <v>434.3685714285714</v>
+      </c>
+      <c r="F210" t="n">
+        <v>436.0985714285715</v>
+      </c>
+      <c r="G210" t="n">
+        <v>434.93</v>
+      </c>
+      <c r="H210" t="n">
+        <v>430.74</v>
+      </c>
+      <c r="I210" t="n">
+        <v>431.55</v>
+      </c>
+      <c r="J210" t="n">
+        <v>425.39</v>
+      </c>
+      <c r="K210" t="n">
+        <v>427.6766666666667</v>
+      </c>
+      <c r="L210" t="n">
+        <v>425.9466666666667</v>
+      </c>
+      <c r="M210" t="n">
+        <v>427.1285714285714</v>
+      </c>
+      <c r="N210" t="n">
+        <v>424.15</v>
+      </c>
+      <c r="O210" t="n">
+        <v>413.2585714285714</v>
+      </c>
+      <c r="P210" t="n">
+        <v>411.64</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>401.69</v>
+      </c>
+      <c r="R210" t="n">
+        <v>375.345</v>
+      </c>
+      <c r="S210" t="n">
+        <v>378.6105882352941</v>
+      </c>
+      <c r="T210" t="n">
+        <v>394.98</v>
+      </c>
+      <c r="U210" t="n">
+        <v>395.9585714285714</v>
+      </c>
+      <c r="V210" t="n">
+        <v>391.28</v>
+      </c>
+      <c r="W210" t="n">
+        <v>388.16</v>
+      </c>
+      <c r="X210" t="n">
+        <v>379.32</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>370.07</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>376.26</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>380.2885714285715</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>372.2985714285714</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>361.32</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>346.57</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>342</v>
+      </c>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20461,7 +20569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22619,6 +22727,16 @@
       </c>
       <c r="B215" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -22792,28 +22910,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2317444238457262</v>
+        <v>0.2160409427471757</v>
       </c>
       <c r="J2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K2" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01404105663800148</v>
+        <v>0.0123159583218444</v>
       </c>
       <c r="M2" t="n">
-        <v>11.44377492909422</v>
+        <v>11.46276663557262</v>
       </c>
       <c r="N2" t="n">
-        <v>221.495965763262</v>
+        <v>221.3362531797303</v>
       </c>
       <c r="O2" t="n">
-        <v>14.88274053268624</v>
+        <v>14.87737386704153</v>
       </c>
       <c r="P2" t="n">
-        <v>409.3508744072968</v>
+        <v>409.4998519215875</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22870,28 +22988,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2910522062318415</v>
+        <v>0.2803600303436162</v>
       </c>
       <c r="J3" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02230539958786582</v>
+        <v>0.02092547393539468</v>
       </c>
       <c r="M3" t="n">
-        <v>11.38250478734418</v>
+        <v>11.37287201633218</v>
       </c>
       <c r="N3" t="n">
-        <v>220.7249410277471</v>
+        <v>219.9712343813723</v>
       </c>
       <c r="O3" t="n">
-        <v>14.85681463261042</v>
+        <v>14.83142725368575</v>
       </c>
       <c r="P3" t="n">
-        <v>419.588254673887</v>
+        <v>419.6903799985195</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22948,28 +23066,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4327699992507392</v>
+        <v>0.4230927348779585</v>
       </c>
       <c r="J4" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K4" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04092780136369356</v>
+        <v>0.03959494804523189</v>
       </c>
       <c r="M4" t="n">
-        <v>12.02481913261658</v>
+        <v>12.00825968760867</v>
       </c>
       <c r="N4" t="n">
-        <v>249.2068069037607</v>
+        <v>248.0361649617167</v>
       </c>
       <c r="O4" t="n">
-        <v>15.78628540549551</v>
+        <v>15.74916394484852</v>
       </c>
       <c r="P4" t="n">
-        <v>423.034110382232</v>
+        <v>423.1313768577345</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23026,28 +23144,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4038962827440565</v>
+        <v>0.400495405602854</v>
       </c>
       <c r="J5" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03586584516232882</v>
+        <v>0.03569456299217133</v>
       </c>
       <c r="M5" t="n">
-        <v>12.79439925289486</v>
+        <v>12.7381465538713</v>
       </c>
       <c r="N5" t="n">
-        <v>265.3138967628695</v>
+        <v>263.8378282549892</v>
       </c>
       <c r="O5" t="n">
-        <v>16.28845900516281</v>
+        <v>16.24308555216616</v>
       </c>
       <c r="P5" t="n">
-        <v>427.0601335520399</v>
+        <v>427.0918057865073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23104,28 +23222,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4818412261992721</v>
+        <v>0.4796029422859872</v>
       </c>
       <c r="J6" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04624797371824596</v>
+        <v>0.04637697146497832</v>
       </c>
       <c r="M6" t="n">
-        <v>12.60986100182878</v>
+        <v>12.54542185687923</v>
       </c>
       <c r="N6" t="n">
-        <v>282.3874872148259</v>
+        <v>280.6790355361109</v>
       </c>
       <c r="O6" t="n">
-        <v>16.80438892714715</v>
+        <v>16.75347831156596</v>
       </c>
       <c r="P6" t="n">
-        <v>425.5775977746055</v>
+        <v>425.5992148486781</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23182,28 +23300,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5082083610327671</v>
+        <v>0.5089570679331367</v>
       </c>
       <c r="J7" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K7" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05934197782118089</v>
+        <v>0.06019575407679512</v>
       </c>
       <c r="M7" t="n">
-        <v>12.07700320418892</v>
+        <v>12.01281198765504</v>
       </c>
       <c r="N7" t="n">
-        <v>250.5119163624056</v>
+        <v>249.1073451912792</v>
       </c>
       <c r="O7" t="n">
-        <v>15.82756823906963</v>
+        <v>15.78313483409678</v>
       </c>
       <c r="P7" t="n">
-        <v>421.016199112089</v>
+        <v>421.0093808865572</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23260,28 +23378,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5791872119154973</v>
+        <v>0.5766596287987912</v>
       </c>
       <c r="J8" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K8" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07509407225527753</v>
+        <v>0.07532191712351399</v>
       </c>
       <c r="M8" t="n">
-        <v>11.97640596578985</v>
+        <v>11.92378583167371</v>
       </c>
       <c r="N8" t="n">
-        <v>253.8940732026331</v>
+        <v>252.4755695679185</v>
       </c>
       <c r="O8" t="n">
-        <v>15.93405388476621</v>
+        <v>15.88947983943837</v>
       </c>
       <c r="P8" t="n">
-        <v>418.0941913041856</v>
+        <v>418.1173223510927</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23338,28 +23456,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6133152339076484</v>
+        <v>0.6139427316860325</v>
       </c>
       <c r="J9" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K9" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07179570068564645</v>
+        <v>0.07273268099507224</v>
       </c>
       <c r="M9" t="n">
-        <v>12.81284502812864</v>
+        <v>12.7445799200085</v>
       </c>
       <c r="N9" t="n">
-        <v>299.7680120535242</v>
+        <v>298.1046681703435</v>
       </c>
       <c r="O9" t="n">
-        <v>17.31380986535096</v>
+        <v>17.26570786763009</v>
       </c>
       <c r="P9" t="n">
-        <v>415.0076837174057</v>
+        <v>415.0019776425012</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23416,28 +23534,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8278176238161046</v>
+        <v>0.8227118948071732</v>
       </c>
       <c r="J10" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K10" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1174413686904657</v>
+        <v>0.1174203109996306</v>
       </c>
       <c r="M10" t="n">
-        <v>13.63726573505716</v>
+        <v>13.5835576694062</v>
       </c>
       <c r="N10" t="n">
-        <v>320.0358451671365</v>
+        <v>318.3566374461058</v>
       </c>
       <c r="O10" t="n">
-        <v>17.88954569482234</v>
+        <v>17.84255131549594</v>
       </c>
       <c r="P10" t="n">
-        <v>408.7063891806739</v>
+        <v>408.7518871561846</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23494,28 +23612,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8282044539350762</v>
+        <v>0.826810830153363</v>
       </c>
       <c r="J11" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1201612790656094</v>
+        <v>0.1211188491415091</v>
       </c>
       <c r="M11" t="n">
-        <v>13.25741839887456</v>
+        <v>13.19114289114755</v>
       </c>
       <c r="N11" t="n">
-        <v>304.9595422614519</v>
+        <v>303.2934375155713</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4630908564736</v>
+        <v>17.41532191822969</v>
       </c>
       <c r="P11" t="n">
-        <v>407.4891838912035</v>
+        <v>407.5018051262625</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23572,28 +23690,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6706505029199288</v>
+        <v>0.6711178865350329</v>
       </c>
       <c r="J12" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K12" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0854278375679719</v>
+        <v>0.08649666388832145</v>
       </c>
       <c r="M12" t="n">
-        <v>13.24352438373266</v>
+        <v>13.17147469734621</v>
       </c>
       <c r="N12" t="n">
-        <v>290.1513688042655</v>
+        <v>288.5223831866959</v>
       </c>
       <c r="O12" t="n">
-        <v>17.03383012725751</v>
+        <v>16.98594663793266</v>
       </c>
       <c r="P12" t="n">
-        <v>408.0833369690943</v>
+        <v>408.0790148640422</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23650,28 +23768,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.629926137604131</v>
+        <v>0.6341285381835892</v>
       </c>
       <c r="J13" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07343178776085979</v>
+        <v>0.07514867144019532</v>
       </c>
       <c r="M13" t="n">
-        <v>14.35879535632926</v>
+        <v>14.3012416027337</v>
       </c>
       <c r="N13" t="n">
-        <v>313.4314684925628</v>
+        <v>311.7728889235008</v>
       </c>
       <c r="O13" t="n">
-        <v>17.70399583406421</v>
+        <v>17.6570917459105</v>
       </c>
       <c r="P13" t="n">
-        <v>406.6616225597207</v>
+        <v>406.6239141681003</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23728,28 +23846,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6687578294746787</v>
+        <v>0.6713154394420122</v>
       </c>
       <c r="J14" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K14" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08536433536428922</v>
+        <v>0.08690119997528478</v>
       </c>
       <c r="M14" t="n">
-        <v>14.31196023211198</v>
+        <v>14.24705119613789</v>
       </c>
       <c r="N14" t="n">
-        <v>306.5826354943065</v>
+        <v>304.8951343058486</v>
       </c>
       <c r="O14" t="n">
-        <v>17.50950129199306</v>
+        <v>17.4612466423749</v>
       </c>
       <c r="P14" t="n">
-        <v>404.2643184982941</v>
+        <v>404.241828059389</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23806,28 +23924,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5404177213931948</v>
+        <v>0.535547995384313</v>
       </c>
       <c r="J15" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K15" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06405720751252497</v>
+        <v>0.06370734063764216</v>
       </c>
       <c r="M15" t="n">
-        <v>12.47958199778674</v>
+        <v>12.43630353679126</v>
       </c>
       <c r="N15" t="n">
-        <v>260.1625430371861</v>
+        <v>258.7461251362408</v>
       </c>
       <c r="O15" t="n">
-        <v>16.12955495471546</v>
+        <v>16.08558749739159</v>
       </c>
       <c r="P15" t="n">
-        <v>403.6627023404354</v>
+        <v>403.7073650912832</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23884,28 +24002,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3693922264285656</v>
+        <v>0.3683215702879128</v>
       </c>
       <c r="J16" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K16" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02379120085673192</v>
+        <v>0.02395690682577378</v>
       </c>
       <c r="M16" t="n">
-        <v>14.73235236633916</v>
+        <v>14.65115236503571</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5236244021712</v>
+        <v>338.5140857400026</v>
       </c>
       <c r="O16" t="n">
-        <v>18.45328221217492</v>
+        <v>18.3987522875874</v>
       </c>
       <c r="P16" t="n">
-        <v>403.0082202472308</v>
+        <v>403.0180188459416</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23962,28 +24080,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02148267518117655</v>
+        <v>-0.01969874465726563</v>
       </c>
       <c r="J17" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L17" t="n">
-        <v>8.219528511843599e-05</v>
+        <v>7.0175321983168e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>15.10741429791928</v>
+        <v>15.01736397864837</v>
       </c>
       <c r="N17" t="n">
-        <v>349.9078522340872</v>
+        <v>347.6338438014594</v>
       </c>
       <c r="O17" t="n">
-        <v>18.70582401911467</v>
+        <v>18.64494150705385</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8238189947701</v>
+        <v>400.8082814873704</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24034,28 +24152,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2343405286047639</v>
+        <v>0.2160175344813879</v>
       </c>
       <c r="J18" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00666526808598189</v>
+        <v>0.005736394318246019</v>
       </c>
       <c r="M18" t="n">
-        <v>17.66970235377866</v>
+        <v>17.6551808876697</v>
       </c>
       <c r="N18" t="n">
-        <v>501.1524528638107</v>
+        <v>499.5029001997752</v>
       </c>
       <c r="O18" t="n">
-        <v>22.38643457238804</v>
+        <v>22.34956152142084</v>
       </c>
       <c r="P18" t="n">
-        <v>384.6023706206748</v>
+        <v>384.7631743289523</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24106,28 +24224,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1873760519581109</v>
+        <v>0.1662597488710804</v>
       </c>
       <c r="J19" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K19" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005282262286360861</v>
+        <v>0.004205766331532801</v>
       </c>
       <c r="M19" t="n">
-        <v>15.79911215601679</v>
+        <v>15.81774304178167</v>
       </c>
       <c r="N19" t="n">
-        <v>388.6693042172254</v>
+        <v>387.9076762338603</v>
       </c>
       <c r="O19" t="n">
-        <v>19.71469766994223</v>
+        <v>19.69537194961954</v>
       </c>
       <c r="P19" t="n">
-        <v>390.4165249076261</v>
+        <v>390.6135688283292</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24184,28 +24302,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.473531696337964</v>
+        <v>0.4715189354929308</v>
       </c>
       <c r="J20" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K20" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0462019950039485</v>
+        <v>0.04639668950899944</v>
       </c>
       <c r="M20" t="n">
-        <v>13.42525758025739</v>
+        <v>13.35311860367159</v>
       </c>
       <c r="N20" t="n">
-        <v>279.0941465107983</v>
+        <v>277.3794415911396</v>
       </c>
       <c r="O20" t="n">
-        <v>16.7061110528692</v>
+        <v>16.65471229385664</v>
       </c>
       <c r="P20" t="n">
-        <v>384.4357294025653</v>
+        <v>384.4545644523465</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24262,28 +24380,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5850031289713378</v>
+        <v>0.5841831820264686</v>
       </c>
       <c r="J21" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K21" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08498024501026646</v>
+        <v>0.08573033337070513</v>
       </c>
       <c r="M21" t="n">
-        <v>11.94641092051772</v>
+        <v>11.87703467953205</v>
       </c>
       <c r="N21" t="n">
-        <v>227.8744563850849</v>
+        <v>226.4624323447111</v>
       </c>
       <c r="O21" t="n">
-        <v>15.09551113361468</v>
+        <v>15.04866878978706</v>
       </c>
       <c r="P21" t="n">
-        <v>381.5028668411384</v>
+        <v>381.5104730114076</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24340,28 +24458,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4794650068605009</v>
+        <v>0.4760773106183083</v>
       </c>
       <c r="J22" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K22" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06179297531786787</v>
+        <v>0.0616591408819378</v>
       </c>
       <c r="M22" t="n">
-        <v>11.39903287040877</v>
+        <v>11.35053319159199</v>
       </c>
       <c r="N22" t="n">
-        <v>219.4554362025602</v>
+        <v>218.1685024361138</v>
       </c>
       <c r="O22" t="n">
-        <v>14.81402835836898</v>
+        <v>14.77052817051963</v>
       </c>
       <c r="P22" t="n">
-        <v>381.96577972769</v>
+        <v>381.9968387676274</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24418,28 +24536,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3865394549164191</v>
+        <v>0.3821767091629114</v>
       </c>
       <c r="J23" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03977591955145499</v>
+        <v>0.03936690464551407</v>
       </c>
       <c r="M23" t="n">
-        <v>12.06550410587787</v>
+        <v>12.01666966809483</v>
       </c>
       <c r="N23" t="n">
-        <v>219.711234092921</v>
+        <v>218.4733956358844</v>
       </c>
       <c r="O23" t="n">
-        <v>14.82265948110935</v>
+        <v>14.78084556565978</v>
       </c>
       <c r="P23" t="n">
-        <v>382.0883381260811</v>
+        <v>382.1291129453856</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24496,28 +24614,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5749383310011852</v>
+        <v>0.5600809920878072</v>
       </c>
       <c r="J24" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K24" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08798789147390018</v>
+        <v>0.08443487297464769</v>
       </c>
       <c r="M24" t="n">
-        <v>11.75424446623252</v>
+        <v>11.76927436138352</v>
       </c>
       <c r="N24" t="n">
-        <v>208.7313390763123</v>
+        <v>208.5767267890726</v>
       </c>
       <c r="O24" t="n">
-        <v>14.44753747447337</v>
+        <v>14.44218566523338</v>
       </c>
       <c r="P24" t="n">
-        <v>378.0227952744182</v>
+        <v>378.1603093132959</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24574,28 +24692,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.498244441739613</v>
+        <v>0.4757468709812509</v>
       </c>
       <c r="J25" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K25" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0716339397518011</v>
+        <v>0.065664387659504</v>
       </c>
       <c r="M25" t="n">
-        <v>11.72355187257667</v>
+        <v>11.78488993494801</v>
       </c>
       <c r="N25" t="n">
-        <v>198.5176539940563</v>
+        <v>199.9292620814028</v>
       </c>
       <c r="O25" t="n">
-        <v>14.08962930648128</v>
+        <v>14.13963443945432</v>
       </c>
       <c r="P25" t="n">
-        <v>377.5587440417012</v>
+        <v>377.767155704454</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24652,28 +24770,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.33957182713906</v>
+        <v>0.3216721459265772</v>
       </c>
       <c r="J26" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03675877948925821</v>
+        <v>0.03320323028686389</v>
       </c>
       <c r="M26" t="n">
-        <v>11.67736888837603</v>
+        <v>11.70905617249165</v>
       </c>
       <c r="N26" t="n">
-        <v>187.3784747420558</v>
+        <v>187.939580419298</v>
       </c>
       <c r="O26" t="n">
-        <v>13.68862574337014</v>
+        <v>13.70910574834471</v>
       </c>
       <c r="P26" t="n">
-        <v>378.1815032531001</v>
+        <v>378.347392930833</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24730,28 +24848,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05662832942977095</v>
+        <v>0.05048897891610576</v>
       </c>
       <c r="J27" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0009198669986445474</v>
+        <v>0.0007395463397120716</v>
       </c>
       <c r="M27" t="n">
-        <v>12.12297738227351</v>
+        <v>12.08626554245845</v>
       </c>
       <c r="N27" t="n">
-        <v>211.9424482040407</v>
+        <v>210.8862514921535</v>
       </c>
       <c r="O27" t="n">
-        <v>14.55824330762612</v>
+        <v>14.52192313339227</v>
       </c>
       <c r="P27" t="n">
-        <v>380.5313932320331</v>
+        <v>380.5887756226788</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24808,28 +24926,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02199507147843307</v>
+        <v>0.03905226018651432</v>
       </c>
       <c r="J28" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K28" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001202749779338763</v>
+        <v>0.0003864161113665832</v>
       </c>
       <c r="M28" t="n">
-        <v>12.89052587057502</v>
+        <v>12.82681107107011</v>
       </c>
       <c r="N28" t="n">
-        <v>244.4898161068794</v>
+        <v>242.6858399035455</v>
       </c>
       <c r="O28" t="n">
-        <v>15.63617012272761</v>
+        <v>15.57837731933417</v>
       </c>
       <c r="P28" t="n">
-        <v>376.8069551998988</v>
+        <v>376.6478127872632</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24886,28 +25004,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01258316916841567</v>
+        <v>-0.009672911178782839</v>
       </c>
       <c r="J29" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29" t="n">
-        <v>3.16724565454507e-05</v>
+        <v>1.893767879190822e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>14.15231696811307</v>
+        <v>14.0850770196808</v>
       </c>
       <c r="N29" t="n">
-        <v>302.9295698164941</v>
+        <v>301.2011909605757</v>
       </c>
       <c r="O29" t="n">
-        <v>17.40487201379241</v>
+        <v>17.3551488314153</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8851868568555</v>
+        <v>369.8578342353204</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24964,28 +25082,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.08169253641250772</v>
+        <v>-0.07768373623296543</v>
       </c>
       <c r="J30" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001062113717401947</v>
+        <v>0.0009719488114536823</v>
       </c>
       <c r="M30" t="n">
-        <v>15.78924333466276</v>
+        <v>15.71788874080005</v>
       </c>
       <c r="N30" t="n">
-        <v>380.9485959439704</v>
+        <v>378.775452186678</v>
       </c>
       <c r="O30" t="n">
-        <v>19.51790449674274</v>
+        <v>19.46215435625455</v>
       </c>
       <c r="P30" t="n">
-        <v>359.7090624490669</v>
+        <v>359.6714422221766</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -25042,28 +25160,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.2858540889459463</v>
+        <v>-0.2845420985464224</v>
       </c>
       <c r="J31" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01476631919080629</v>
+        <v>0.01481596976530186</v>
       </c>
       <c r="M31" t="n">
-        <v>14.23117581654935</v>
+        <v>14.15202254425981</v>
       </c>
       <c r="N31" t="n">
-        <v>326.0826816281653</v>
+        <v>324.126479791274</v>
       </c>
       <c r="O31" t="n">
-        <v>18.0577595960342</v>
+        <v>18.00351298472812</v>
       </c>
       <c r="P31" t="n">
-        <v>352.8213798102805</v>
+        <v>352.8090230581099</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -25120,28 +25238,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3481216981550817</v>
+        <v>-0.3485344925846116</v>
       </c>
       <c r="J32" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K32" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02954435421413126</v>
+        <v>0.0299728126329758</v>
       </c>
       <c r="M32" t="n">
-        <v>11.91057502070669</v>
+        <v>11.84089164394232</v>
       </c>
       <c r="N32" t="n">
-        <v>235.2517247152275</v>
+        <v>233.8267641689005</v>
       </c>
       <c r="O32" t="n">
-        <v>15.33791787418447</v>
+        <v>15.29139510211219</v>
       </c>
       <c r="P32" t="n">
-        <v>351.4114774841327</v>
+        <v>351.4154287088223</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25201,7 +25319,7 @@
         <v>-0.7657719789261999</v>
       </c>
       <c r="J33" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K33" t="n">
         <v>145</v>
@@ -25257,7 +25375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH209"/>
+  <dimension ref="A1:AH210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55937,7 +56055,11 @@
           <t>-35.27704138728417,173.14573386637204</t>
         </is>
       </c>
-      <c r="AB209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>-35.27650913019712,173.14512944671682</t>
+        </is>
+      </c>
       <c r="AC209" t="inlineStr">
         <is>
           <t>-35.27596276376606,173.14453409230964</t>
@@ -55964,6 +56086,174 @@
         </is>
       </c>
       <c r="AH209" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>-35.29134112264953,173.15976784735577</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>-35.29085826728785,173.15906960546585</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>-35.29033388589652,173.15843481029202</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>-35.2898075392339,173.15780301171793</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>-35.28924406300825,173.1572279425089</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>-35.28866427822122,173.15667778734507</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>-35.28806749402065,173.15615360189088</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>-35.2874988306445,173.15558644029892</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>-35.28689095753948,173.15507918681357</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>-35.28633059222672,173.1544993330101</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>-35.28574762954583,173.1539540028436</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>-35.285181041881636,173.15338364467223</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>-35.28459165950259,173.15284963020326</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>-35.2839612221352,173.15238373007972</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>-35.28338851497228,173.15182827992038</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>-35.28276564023379,173.15134120246327</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>-35.2820486888625,173.15099319972518</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>-35.2815016371227,173.15039401544536</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>-35.28102976918483,173.14968367504355</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>-35.28046958631662,173.14910389165524</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>-35.279876939849224,173.14857209606907</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>-35.27929323240383,173.14802707935098</t>
+        </is>
+      </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>-35.27867670115253,173.1475305829011</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>-35.27805419909812,173.14704290763947</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>-35.27749199700248,173.14646608037438</t>
+        </is>
+      </c>
+      <c r="AA210" t="inlineStr">
+        <is>
+          <t>-35.2769636774366,173.14584395238205</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>-35.2764455368303,173.1452141741392</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr">
+        <is>
+          <t>-35.27586112518542,173.1446669741866</t>
+        </is>
+      </c>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>-35.27525722001044,173.14414263819486</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>-35.274630116391116,173.14364862698076</t>
+        </is>
+      </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>-35.27406561966462,173.14307275954323</t>
+        </is>
+      </c>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH210"/>
+  <dimension ref="A1:AH211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20551,8 +20551,118 @@
       <c r="AF210" t="n">
         <v>342</v>
       </c>
-      <c r="AG210" t="inlineStr"/>
+      <c r="AG210" t="n">
+        <v>314.4285714285714</v>
+      </c>
       <c r="AH210" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>398.5966666666667</v>
+      </c>
+      <c r="C211" t="n">
+        <v>412.8966666666667</v>
+      </c>
+      <c r="D211" t="n">
+        <v>418.3714285714286</v>
+      </c>
+      <c r="E211" t="n">
+        <v>424.0714285714286</v>
+      </c>
+      <c r="F211" t="n">
+        <v>422.6514285714285</v>
+      </c>
+      <c r="G211" t="n">
+        <v>425.6</v>
+      </c>
+      <c r="H211" t="n">
+        <v>428.46</v>
+      </c>
+      <c r="I211" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="J211" t="n">
+        <v>418.03</v>
+      </c>
+      <c r="K211" t="n">
+        <v>417.3311111111111</v>
+      </c>
+      <c r="L211" t="n">
+        <v>426.4611111111111</v>
+      </c>
+      <c r="M211" t="n">
+        <v>419.9414285714286</v>
+      </c>
+      <c r="N211" t="n">
+        <v>417.2166666666667</v>
+      </c>
+      <c r="O211" t="n">
+        <v>414.0514285714286</v>
+      </c>
+      <c r="P211" t="n">
+        <v>411.9566666666667</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>399.54</v>
+      </c>
+      <c r="R211" t="n">
+        <v>361.725</v>
+      </c>
+      <c r="S211" t="n">
+        <v>368.1676470588236</v>
+      </c>
+      <c r="T211" t="n">
+        <v>379.6666666666667</v>
+      </c>
+      <c r="U211" t="n">
+        <v>384.7514285714286</v>
+      </c>
+      <c r="V211" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="W211" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="X211" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>364.1</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>375.22</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>371.1614285714285</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>366.2814285714285</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>353.52</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>332.35</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>315.2514285714286</v>
+      </c>
+      <c r="AH211" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20569,7 +20679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22737,6 +22847,16 @@
       </c>
       <c r="B216" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -25375,7 +25495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH210"/>
+  <dimension ref="A1:AH211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56252,8 +56372,184 @@
           <t>-35.27406561966462,173.14307275954323</t>
         </is>
       </c>
-      <c r="AG210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>-35.27335965496535,173.1426818408114</t>
+        </is>
+      </c>
       <c r="AH210" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-35.291325916043675,173.1597910835214</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-35.29083316060511,173.15910796941668</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-35.2902907577024,173.15850071193017</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-35.289749617418494,173.15789151880358</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-35.289168422666975,173.15734352433626</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>-35.288611797100174,173.15675798089904</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-35.288054669109094,173.1561731989476</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>-35.287447362466835,173.15566508603192</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>-35.28684955816284,173.1551424469019</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>-35.286272399620465,173.1545882539552</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>-35.28575052322474,173.15394958116488</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>-35.28514061536688,173.15344541829094</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>-35.284552591933014,173.15290915493853</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>-35.28396573463102,173.15237696745643</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>-35.283390331989764,173.15182559366946</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>-35.282753303681936,173.1513594405944</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>-35.28197053832784,173.15110873519887</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>-35.281441716609315,173.1504826003467</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>-35.28094190338483,173.149813574041</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>-35.28040528157911,173.14919895859006</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>-35.27982225850232,173.14865293593476</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>-35.2792111820125,173.1481483810034</t>
+        </is>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>-35.27861886445016,173.14761608743297</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>-35.278023559528904,173.1470882044614</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>-35.27752154625021,173.14642239536846</t>
+        </is>
+      </c>
+      <c r="AA211" t="inlineStr">
+        <is>
+          <t>-35.27696856004165,173.1458370355534</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>-35.27638997085957,173.14528820623832</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>-35.27582411774044,173.14471535744312</t>
+        </is>
+      </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>-35.275209247548865,173.14420535694188</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>-35.274601517511165,173.14368601682318</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>-35.27400626951418,173.14315035321573</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>-35.27336471575133,173.1426752244267</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -23030,28 +23030,28 @@
         <v>0.0334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2160409427471757</v>
+        <v>0.1978631909714416</v>
       </c>
       <c r="J2" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0123159583218444</v>
+        <v>0.01040628699267976</v>
       </c>
       <c r="M2" t="n">
-        <v>11.46276663557262</v>
+        <v>11.49466329100499</v>
       </c>
       <c r="N2" t="n">
-        <v>221.3362531797303</v>
+        <v>221.6097546570672</v>
       </c>
       <c r="O2" t="n">
-        <v>14.87737386704153</v>
+        <v>14.88656288929944</v>
       </c>
       <c r="P2" t="n">
-        <v>409.4998519215875</v>
+        <v>409.6726752659495</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23108,28 +23108,28 @@
         <v>0.0354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2803600303436162</v>
+        <v>0.2651833708856572</v>
       </c>
       <c r="J3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K3" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02092547393539468</v>
+        <v>0.01888600844245547</v>
       </c>
       <c r="M3" t="n">
-        <v>11.37287201633218</v>
+        <v>11.39079428397312</v>
       </c>
       <c r="N3" t="n">
-        <v>219.9712343813723</v>
+        <v>219.8233474286846</v>
       </c>
       <c r="O3" t="n">
-        <v>14.83142725368575</v>
+        <v>14.82644082133958</v>
       </c>
       <c r="P3" t="n">
-        <v>419.6903799985195</v>
+        <v>419.8356672230403</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23186,28 +23186,28 @@
         <v>0.0364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4230927348779585</v>
+        <v>0.4048335043132246</v>
       </c>
       <c r="J4" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K4" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03959494804523189</v>
+        <v>0.03658222242468634</v>
       </c>
       <c r="M4" t="n">
-        <v>12.00825968760867</v>
+        <v>12.04700437901699</v>
       </c>
       <c r="N4" t="n">
-        <v>248.0361649617167</v>
+        <v>248.0109109427941</v>
       </c>
       <c r="O4" t="n">
-        <v>15.74916394484852</v>
+        <v>15.74836216699356</v>
       </c>
       <c r="P4" t="n">
-        <v>423.1313768577345</v>
+        <v>423.3153160834776</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23264,28 +23264,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.400495405602854</v>
+        <v>0.3863334910956562</v>
       </c>
       <c r="J5" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K5" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03569456299217133</v>
+        <v>0.03355884557784383</v>
       </c>
       <c r="M5" t="n">
-        <v>12.7381465538713</v>
+        <v>12.73792459629108</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8378282549892</v>
+        <v>263.3416166737657</v>
       </c>
       <c r="O5" t="n">
-        <v>16.24308555216616</v>
+        <v>16.2278038154818</v>
       </c>
       <c r="P5" t="n">
-        <v>427.0918057865073</v>
+        <v>427.2239922769899</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23342,28 +23342,28 @@
         <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4796029422859872</v>
+        <v>0.4625442924780137</v>
       </c>
       <c r="J6" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04637697146497832</v>
+        <v>0.04356847067818015</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54542185687923</v>
+        <v>12.56642274065856</v>
       </c>
       <c r="N6" t="n">
-        <v>280.6790355361109</v>
+        <v>280.392587546419</v>
       </c>
       <c r="O6" t="n">
-        <v>16.75347831156596</v>
+        <v>16.74492721830761</v>
       </c>
       <c r="P6" t="n">
-        <v>425.5992148486781</v>
+        <v>425.7643404745394</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23420,28 +23420,28 @@
         <v>0.0414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5089570679331367</v>
+        <v>0.4999863021117558</v>
       </c>
       <c r="J7" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06019575407679512</v>
+        <v>0.05878827294454758</v>
       </c>
       <c r="M7" t="n">
-        <v>12.01281198765504</v>
+        <v>11.99738679959438</v>
       </c>
       <c r="N7" t="n">
-        <v>249.1073451912792</v>
+        <v>248.126623581635</v>
       </c>
       <c r="O7" t="n">
-        <v>15.78313483409678</v>
+        <v>15.75203553772131</v>
       </c>
       <c r="P7" t="n">
-        <v>421.0093808865572</v>
+        <v>421.0912561917323</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23498,28 +23498,28 @@
         <v>0.0422</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5766596287987912</v>
+        <v>0.5718160285728442</v>
       </c>
       <c r="J8" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07532191712351399</v>
+        <v>0.0749471894898992</v>
       </c>
       <c r="M8" t="n">
-        <v>11.92378583167371</v>
+        <v>11.88606760330965</v>
       </c>
       <c r="N8" t="n">
-        <v>252.4755695679185</v>
+        <v>251.1623941406187</v>
       </c>
       <c r="O8" t="n">
-        <v>15.88947983943837</v>
+        <v>15.84810380268311</v>
       </c>
       <c r="P8" t="n">
-        <v>418.1173223510927</v>
+        <v>418.1617488879203</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23576,28 +23576,28 @@
         <v>0.0465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6139427316860325</v>
+        <v>0.6052434121109431</v>
       </c>
       <c r="J9" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K9" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07273268099507224</v>
+        <v>0.07151921852307486</v>
       </c>
       <c r="M9" t="n">
-        <v>12.7445799200085</v>
+        <v>12.72727354702615</v>
       </c>
       <c r="N9" t="n">
-        <v>298.1046681703435</v>
+        <v>296.8571566262661</v>
       </c>
       <c r="O9" t="n">
-        <v>17.26570786763009</v>
+        <v>17.22954313457749</v>
       </c>
       <c r="P9" t="n">
-        <v>415.0019776425012</v>
+        <v>415.0812625694004</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23654,28 +23654,28 @@
         <v>0.0578</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8227118948071732</v>
+        <v>0.8100467404095147</v>
       </c>
       <c r="J10" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1174203109996306</v>
+        <v>0.115239280636784</v>
       </c>
       <c r="M10" t="n">
-        <v>13.5835576694062</v>
+        <v>13.56457074208133</v>
       </c>
       <c r="N10" t="n">
-        <v>318.3566374461058</v>
+        <v>317.3798832534283</v>
       </c>
       <c r="O10" t="n">
-        <v>17.84255131549594</v>
+        <v>17.81515880517006</v>
       </c>
       <c r="P10" t="n">
-        <v>408.7518871561846</v>
+        <v>408.8649997047832</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23732,28 +23732,28 @@
         <v>0.0504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.826810830153363</v>
+        <v>0.8147056474836929</v>
       </c>
       <c r="J11" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1211188491415091</v>
+        <v>0.1190379854094425</v>
       </c>
       <c r="M11" t="n">
-        <v>13.19114289114755</v>
+        <v>13.17556418119812</v>
       </c>
       <c r="N11" t="n">
-        <v>303.2934375155713</v>
+        <v>302.3690838235547</v>
       </c>
       <c r="O11" t="n">
-        <v>17.41532191822969</v>
+        <v>17.38876314818149</v>
       </c>
       <c r="P11" t="n">
-        <v>407.5018051262625</v>
+        <v>407.6116710364178</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23810,28 +23810,28 @@
         <v>0.0488</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6711178865350329</v>
+        <v>0.6720765590088296</v>
       </c>
       <c r="J12" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K12" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08649666388832145</v>
+        <v>0.08767823403318964</v>
       </c>
       <c r="M12" t="n">
-        <v>13.17147469734621</v>
+        <v>13.10266886693543</v>
       </c>
       <c r="N12" t="n">
-        <v>288.5223831866959</v>
+        <v>286.9151646102544</v>
       </c>
       <c r="O12" t="n">
-        <v>16.98594663793266</v>
+        <v>16.93857032368005</v>
       </c>
       <c r="P12" t="n">
-        <v>408.0790148640422</v>
+        <v>408.0701301212908</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23888,28 +23888,28 @@
         <v>0.0407</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6341285381835892</v>
+        <v>0.6309129205874037</v>
       </c>
       <c r="J13" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K13" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07514867144019532</v>
+        <v>0.0752484494901744</v>
       </c>
       <c r="M13" t="n">
-        <v>14.3012416027337</v>
+        <v>14.23936812794532</v>
       </c>
       <c r="N13" t="n">
-        <v>311.7728889235008</v>
+        <v>310.0961298682962</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6570917459105</v>
+        <v>17.60954655487461</v>
       </c>
       <c r="P13" t="n">
-        <v>406.6239141681003</v>
+        <v>406.6528343843913</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23966,28 +23966,28 @@
         <v>0.0334</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6713154394420122</v>
+        <v>0.6668055969927142</v>
       </c>
       <c r="J14" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08690119997528478</v>
+        <v>0.08674043110235286</v>
       </c>
       <c r="M14" t="n">
-        <v>14.24705119613789</v>
+        <v>14.18971906335341</v>
       </c>
       <c r="N14" t="n">
-        <v>304.8951343058486</v>
+        <v>303.3026459359122</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4612466423749</v>
+        <v>17.41558629320047</v>
       </c>
       <c r="P14" t="n">
-        <v>404.241828059389</v>
+        <v>404.2815787072688</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24044,28 +24044,28 @@
         <v>0.0366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.535547995384313</v>
+        <v>0.5316681538805615</v>
       </c>
       <c r="J15" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06370734063764216</v>
+        <v>0.06356752564854129</v>
       </c>
       <c r="M15" t="n">
-        <v>12.43630353679126</v>
+        <v>12.38782962732371</v>
       </c>
       <c r="N15" t="n">
-        <v>258.7461251362408</v>
+        <v>257.3070373119225</v>
       </c>
       <c r="O15" t="n">
-        <v>16.08558749739159</v>
+        <v>16.04079291406514</v>
       </c>
       <c r="P15" t="n">
-        <v>403.7073650912832</v>
+        <v>403.7430285300067</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24122,28 +24122,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3683215702879128</v>
+        <v>0.3676153066962384</v>
       </c>
       <c r="J16" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K16" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02395690682577378</v>
+        <v>0.02416512891476053</v>
       </c>
       <c r="M16" t="n">
-        <v>14.65115236503571</v>
+        <v>14.5688720578781</v>
       </c>
       <c r="N16" t="n">
-        <v>338.5140857400026</v>
+        <v>336.5252305464109</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3987522875874</v>
+        <v>18.34462402303222</v>
       </c>
       <c r="P16" t="n">
-        <v>403.0180188459416</v>
+        <v>403.0244968182443</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24200,28 +24200,28 @@
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01969874465726563</v>
+        <v>-0.02062854383800056</v>
       </c>
       <c r="J17" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K17" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="n">
-        <v>7.0175321983168e-05</v>
+        <v>7.811719611028334e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>15.01736397864837</v>
+        <v>14.92497051558943</v>
       </c>
       <c r="N17" t="n">
-        <v>347.6338438014594</v>
+        <v>345.3801107036407</v>
       </c>
       <c r="O17" t="n">
-        <v>18.64494150705385</v>
+        <v>18.58440504034608</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8082814873704</v>
+        <v>400.8163973387035</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24272,28 +24272,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2160175344813879</v>
+        <v>0.1823668418159884</v>
       </c>
       <c r="J18" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K18" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005736394318246019</v>
+        <v>0.004113860358901711</v>
       </c>
       <c r="M18" t="n">
-        <v>17.6551808876697</v>
+        <v>17.72050446168207</v>
       </c>
       <c r="N18" t="n">
-        <v>499.5029001997752</v>
+        <v>501.3527572042531</v>
       </c>
       <c r="O18" t="n">
-        <v>22.34956152142084</v>
+        <v>22.39090791379959</v>
       </c>
       <c r="P18" t="n">
-        <v>384.7631743289523</v>
+        <v>385.0591149991673</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24344,28 +24344,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.1662597488710804</v>
+        <v>0.132930682102465</v>
       </c>
       <c r="J19" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004205766331532801</v>
+        <v>0.002699913877991067</v>
       </c>
       <c r="M19" t="n">
-        <v>15.81774304178167</v>
+        <v>15.90698155398799</v>
       </c>
       <c r="N19" t="n">
-        <v>387.9076762338603</v>
+        <v>389.9463971647675</v>
       </c>
       <c r="O19" t="n">
-        <v>19.69537194961954</v>
+        <v>19.74706046896012</v>
       </c>
       <c r="P19" t="n">
-        <v>390.6135688283292</v>
+        <v>390.9252280759125</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24422,28 +24422,28 @@
         <v>0.0312</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4715189354929308</v>
+        <v>0.4522658510682085</v>
       </c>
       <c r="J20" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04639668950899944</v>
+        <v>0.04310728712197909</v>
       </c>
       <c r="M20" t="n">
-        <v>13.35311860367159</v>
+        <v>13.37773648243053</v>
       </c>
       <c r="N20" t="n">
-        <v>277.3794415911396</v>
+        <v>277.4294363482662</v>
       </c>
       <c r="O20" t="n">
-        <v>16.65471229385664</v>
+        <v>16.65621314549817</v>
       </c>
       <c r="P20" t="n">
-        <v>384.4545644523465</v>
+        <v>384.6351379590747</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24500,28 +24500,28 @@
         <v>0.0403</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5841831820264686</v>
+        <v>0.5711351019995629</v>
       </c>
       <c r="J21" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K21" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08573033337070513</v>
+        <v>0.08288943424712025</v>
       </c>
       <c r="M21" t="n">
-        <v>11.87703467953205</v>
+        <v>11.88154279607983</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4624323447111</v>
+        <v>225.9313516890516</v>
       </c>
       <c r="O21" t="n">
-        <v>15.04866878978706</v>
+        <v>15.03101299610414</v>
       </c>
       <c r="P21" t="n">
-        <v>381.5104730114076</v>
+        <v>381.6318005489942</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24578,28 +24578,28 @@
         <v>0.0421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4760773106183083</v>
+        <v>0.4626403119329447</v>
       </c>
       <c r="J22" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0616591408819378</v>
+        <v>0.05884468248456476</v>
       </c>
       <c r="M22" t="n">
-        <v>11.35053319159199</v>
+        <v>11.36546911137651</v>
       </c>
       <c r="N22" t="n">
-        <v>218.1685024361138</v>
+        <v>217.7941608338594</v>
       </c>
       <c r="O22" t="n">
-        <v>14.77052817051963</v>
+        <v>14.75785082028746</v>
       </c>
       <c r="P22" t="n">
-        <v>381.9968387676274</v>
+        <v>382.1203315761744</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24656,28 +24656,28 @@
         <v>0.0417</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3821767091629114</v>
+        <v>0.3624418785233516</v>
       </c>
       <c r="J23" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K23" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03936690464551407</v>
+        <v>0.03565585834435381</v>
       </c>
       <c r="M23" t="n">
-        <v>12.01666966809483</v>
+        <v>12.05306582606798</v>
       </c>
       <c r="N23" t="n">
-        <v>218.4733956358844</v>
+        <v>219.1196275586008</v>
       </c>
       <c r="O23" t="n">
-        <v>14.78084556565978</v>
+        <v>14.80268987578274</v>
       </c>
       <c r="P23" t="n">
-        <v>382.1291129453856</v>
+        <v>382.3139845115447</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24734,28 +24734,28 @@
         <v>0.0452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5600809920878072</v>
+        <v>0.5348489291678294</v>
       </c>
       <c r="J24" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K24" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08443487297464769</v>
+        <v>0.07736004043257549</v>
       </c>
       <c r="M24" t="n">
-        <v>11.76927436138352</v>
+        <v>11.84286306843269</v>
       </c>
       <c r="N24" t="n">
-        <v>208.5767267890726</v>
+        <v>210.5382653836342</v>
       </c>
       <c r="O24" t="n">
-        <v>14.44218566523338</v>
+        <v>14.50993678082831</v>
       </c>
       <c r="P24" t="n">
-        <v>378.1603093132959</v>
+        <v>378.394377673426</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24812,28 +24812,28 @@
         <v>0.0474</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4757468709812509</v>
+        <v>0.4483076074168407</v>
       </c>
       <c r="J25" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K25" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" t="n">
-        <v>0.065664387659504</v>
+        <v>0.05831086710283306</v>
       </c>
       <c r="M25" t="n">
-        <v>11.78488993494801</v>
+        <v>11.87563347599072</v>
       </c>
       <c r="N25" t="n">
-        <v>199.9292620814028</v>
+        <v>202.6897495406506</v>
       </c>
       <c r="O25" t="n">
-        <v>14.13963443945432</v>
+        <v>14.23691502891868</v>
       </c>
       <c r="P25" t="n">
-        <v>377.767155704454</v>
+        <v>378.0219448020411</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24890,28 +24890,28 @@
         <v>0.0426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3216721459265772</v>
+        <v>0.3096827420600398</v>
       </c>
       <c r="J26" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K26" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03320323028686389</v>
+        <v>0.03107602026297041</v>
       </c>
       <c r="M26" t="n">
-        <v>11.70905617249165</v>
+        <v>11.70688823652823</v>
       </c>
       <c r="N26" t="n">
-        <v>187.939580419298</v>
+        <v>187.5960659029488</v>
       </c>
       <c r="O26" t="n">
-        <v>13.70910574834471</v>
+        <v>13.69657131923712</v>
       </c>
       <c r="P26" t="n">
-        <v>378.347392930833</v>
+        <v>378.4587735602256</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24968,28 +24968,28 @@
         <v>0.0438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05048897891610576</v>
+        <v>0.04541424108706673</v>
       </c>
       <c r="J27" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K27" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0007395463397120716</v>
+        <v>0.0006051816956785805</v>
       </c>
       <c r="M27" t="n">
-        <v>12.08626554245845</v>
+        <v>12.04431752971539</v>
       </c>
       <c r="N27" t="n">
-        <v>210.8862514921535</v>
+        <v>209.7860612317314</v>
       </c>
       <c r="O27" t="n">
-        <v>14.52192313339227</v>
+        <v>14.48399327643214</v>
       </c>
       <c r="P27" t="n">
-        <v>380.5887756226788</v>
+        <v>380.6363169275928</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -25046,28 +25046,28 @@
         <v>0.0419</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03905226018651432</v>
+        <v>0.03228167559804833</v>
       </c>
       <c r="J28" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003864161113665832</v>
+        <v>0.0002668882140600681</v>
       </c>
       <c r="M28" t="n">
-        <v>12.82681107107011</v>
+        <v>12.79220153225067</v>
       </c>
       <c r="N28" t="n">
-        <v>242.6858399035455</v>
+        <v>241.5096118866294</v>
       </c>
       <c r="O28" t="n">
-        <v>15.57837731933417</v>
+        <v>15.54057952222598</v>
       </c>
       <c r="P28" t="n">
-        <v>376.6478127872632</v>
+        <v>376.7113786639914</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -25124,28 +25124,28 @@
         <v>0.0402</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.009672911178782839</v>
+        <v>-0.01315620281281117</v>
       </c>
       <c r="J29" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K29" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L29" t="n">
-        <v>1.893767879190822e-05</v>
+        <v>3.543741710831938e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>14.0850770196808</v>
+        <v>14.02277396947178</v>
       </c>
       <c r="N29" t="n">
-        <v>301.2011909605757</v>
+        <v>299.5131692709598</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3551488314153</v>
+        <v>17.30644877700101</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8578342353204</v>
+        <v>369.8906482123689</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -25202,28 +25202,28 @@
         <v>0.0446</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.07768373623296543</v>
+        <v>-0.08205806928665769</v>
       </c>
       <c r="J30" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0009719488114536823</v>
+        <v>0.00109699805572705</v>
       </c>
       <c r="M30" t="n">
-        <v>15.71788874080005</v>
+        <v>15.64935749360983</v>
       </c>
       <c r="N30" t="n">
-        <v>378.775452186678</v>
+        <v>376.6459337406617</v>
       </c>
       <c r="O30" t="n">
-        <v>19.46215435625455</v>
+        <v>19.407368027135</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6714422221766</v>
+        <v>359.7125876592919</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -25280,28 +25280,28 @@
         <v>0.0452</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.2845420985464224</v>
+        <v>-0.2883801272449563</v>
       </c>
       <c r="J31" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01481596976530186</v>
+        <v>0.0153961069018993</v>
       </c>
       <c r="M31" t="n">
-        <v>14.15202254425981</v>
+        <v>14.08920301877026</v>
       </c>
       <c r="N31" t="n">
-        <v>324.126479791274</v>
+        <v>322.2570040775722</v>
       </c>
       <c r="O31" t="n">
-        <v>18.00351298472812</v>
+        <v>17.95151815523055</v>
       </c>
       <c r="P31" t="n">
-        <v>352.8090230581099</v>
+        <v>352.8452517123683</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -25358,28 +25358,28 @@
         <v>0.0446</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3485344925846116</v>
+        <v>-0.3595756319790634</v>
       </c>
       <c r="J32" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0299728126329758</v>
+        <v>0.03214173970041179</v>
       </c>
       <c r="M32" t="n">
-        <v>11.84089164394232</v>
+        <v>11.83580924838698</v>
       </c>
       <c r="N32" t="n">
-        <v>233.8267641689005</v>
+        <v>233.0092199623893</v>
       </c>
       <c r="O32" t="n">
-        <v>15.29139510211219</v>
+        <v>15.26463952939568</v>
       </c>
       <c r="P32" t="n">
-        <v>351.4154287088223</v>
+        <v>351.521350307758</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25436,28 +25436,28 @@
         <v>0.0363</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7657719789261999</v>
+        <v>-0.8008055089419279</v>
       </c>
       <c r="J33" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K33" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L33" t="n">
-        <v>0.09133612476422903</v>
+        <v>0.1007595874284264</v>
       </c>
       <c r="M33" t="n">
-        <v>14.78846549922794</v>
+        <v>14.80153805395203</v>
       </c>
       <c r="N33" t="n">
-        <v>361.1528637783282</v>
+        <v>359.0536553499924</v>
       </c>
       <c r="O33" t="n">
-        <v>19.00402230524707</v>
+        <v>18.94871117912752</v>
       </c>
       <c r="P33" t="n">
-        <v>349.4209651967505</v>
+        <v>349.746418426607</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">

--- a/data/nzd0067/nzd0067.xlsx
+++ b/data/nzd0067/nzd0067.xlsx
@@ -23021,13 +23021,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0334</v>
       </c>
       <c r="I2" t="n">
         <v>0.1978340986439195</v>
@@ -23102,10 +23102,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0292</v>
+        <v>0.0276</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0354</v>
+        <v>0.036</v>
       </c>
       <c r="I3" t="n">
         <v>0.2651666870046286</v>
@@ -23180,10 +23180,10 @@
         <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0309</v>
+        <v>0.0273</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0364</v>
+        <v>0.0435</v>
       </c>
       <c r="I4" t="n">
         <v>0.4048171249899183</v>
@@ -23255,13 +23255,13 @@
         <v>0.9032245105907281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
         <v>0.0335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0368</v>
+        <v>0.047</v>
       </c>
       <c r="I5" t="n">
         <v>0.3863145476480295</v>
@@ -23333,13 +23333,13 @@
         <v>0.8709660141199715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.034</v>
+        <v>0.0367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.036</v>
+        <v>0.0449</v>
       </c>
       <c r="I6" t="n">
         <v>0.4625186144213633</v>
@@ -23414,10 +23414,10 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0347</v>
+        <v>0.0381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0414</v>
+        <v>0.0469</v>
       </c>
       <c r="I7" t="n">
         <v>0.4999863021117558</v>
@@ -23492,10 +23492,10 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0367</v>
+        <v>0.0383</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0422</v>
+        <v>0.0424</v>
       </c>
       <c r="I8" t="n">
         <v>0.5718160285728442</v>
@@ -23567,13 +23567,13 @@
         <v>0.7741905247121983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0365</v>
+        <v>0.0331</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0465</v>
+        <v>0.043</v>
       </c>
       <c r="I9" t="n">
         <v>0.6052434121109431</v>
@@ -23645,13 +23645,13 @@
         <v>0.7419320282421912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0407</v>
+        <v>0.0332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0578</v>
+        <v>0.0368</v>
       </c>
       <c r="I10" t="n">
         <v>0.8100467404095147</v>
@@ -23723,13 +23723,13 @@
         <v>0.7096735317721841</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0381</v>
+        <v>0.0334</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0504</v>
+        <v>0.0377</v>
       </c>
       <c r="I11" t="n">
         <v>0.8147599067149165</v>
@@ -23801,13 +23801,13 @@
         <v>0.6774150353029263</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0389</v>
+        <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0488</v>
+        <v>0.0399</v>
       </c>
       <c r="I12" t="n">
         <v>0.6721313002218849</v>
@@ -23882,10 +23882,10 @@
         <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0339</v>
+        <v>0.033</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0407</v>
+        <v>0.0376</v>
       </c>
       <c r="I13" t="n">
         <v>0.630914687688152</v>
@@ -23960,10 +23960,10 @@
         <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0288</v>
+        <v>0.0286</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0334</v>
+        <v>0.0354</v>
       </c>
       <c r="I14" t="n">
         <v>0.6667830923729283</v>
@@ -24035,13 +24035,13 @@
         <v>0.5806401532649448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0326</v>
+        <v>0.0295</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0366</v>
+        <v>0.0361</v>
       </c>
       <c r="I15" t="n">
         <v>0.5316696661098406</v>
@@ -24116,10 +24116,10 @@
         <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0293</v>
+        <v>0.025</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0364</v>
+        <v>0.0309</v>
       </c>
       <c r="I16" t="n">
         <v>0.3675922542488081</v>
@@ -24194,10 +24194,10 @@
         <v>0.025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0248</v>
+        <v>0.0243</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.0256</v>
       </c>
       <c r="I17" t="n">
         <v>-0.02062854383800044</v>
@@ -24268,9 +24268,15 @@
       <c r="E18" t="n">
         <v>0.4838646638560639</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.021</v>
+      </c>
       <c r="I18" t="n">
         <v>0.182341319617389</v>
       </c>
@@ -24340,9 +24346,15 @@
       <c r="E19" t="n">
         <v>0.4516061673868463</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0255</v>
+      </c>
       <c r="I19" t="n">
         <v>0.1328715584736405</v>
       </c>
@@ -24416,10 +24428,10 @@
         <v>0.03</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0262</v>
+        <v>0.0283</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0312</v>
+        <v>0.0308</v>
       </c>
       <c r="I20" t="n">
         <v>0.4522355103723497</v>
@@ -24494,10 +24506,10 @@
         <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0339</v>
+        <v>0.0345</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0403</v>
+        <v>0.0377</v>
       </c>
       <c r="I21" t="n">
         <v>0.5711130478298728</v>
@@ -24572,10 +24584,10 @@
         <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0365</v>
+        <v>0.039</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0421</v>
+        <v>0.0419</v>
       </c>
       <c r="I22" t="n">
         <v>0.4626403119329447</v>
@@ -24647,13 +24659,13 @@
         <v>0.3225721815075198</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.035</v>
+        <v>0.0399</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0417</v>
+        <v>0.0524</v>
       </c>
       <c r="I23" t="n">
         <v>0.3624418785233516</v>
@@ -24728,10 +24740,10 @@
         <v>0.04</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0373</v>
+        <v>0.0386</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0452</v>
+        <v>0.0465</v>
       </c>
       <c r="I24" t="n">
         <v>0.5348489291678294</v>
@@ -24806,10 +24818,10 @@
         <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0388</v>
+        <v>0.0385</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0474</v>
+        <v>0.0451</v>
       </c>
       <c r="I25" t="n">
         <v>0.4483076074168407</v>
@@ -24884,10 +24896,10 @@
         <v>0.04</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0362</v>
+        <v>0.0386</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0426</v>
+        <v>0.0459</v>
       </c>
       <c r="I26" t="n">
         <v>0.3096827420600398</v>
@@ -24959,13 +24971,13 @@
         <v>0.1935381956291895</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0355</v>
+        <v>0.0393</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0438</v>
+        <v>0.0474</v>
       </c>
       <c r="I27" t="n">
         <v>0.04541424108706673</v>
@@ -25037,13 +25049,13 @@
         <v>0.1612924823462931</v>
       </c>
       <c r="F28" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0339</v>
+        <v>0.0394</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0419</v>
+        <v>0.0477</v>
       </c>
       <c r="I28" t="n">
         <v>0.03227170383378023</v>
@@ -25115,13 +25127,13 @@
         <v>0.1290339858774704</v>
       </c>
       <c r="F29" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0338</v>
+        <v>0.0381</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0402</v>
+        <v>0.0453</v>
       </c>
       <c r="I29" t="n">
         <v>-0.01317394953226235</v>
@@ -25196,10 +25208,10 @@
         <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0347</v>
+        <v>0.035</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0446</v>
+        <v>0.0423</v>
       </c>
       <c r="I30" t="n">
         <v>-0.08205806928665769</v>
@@ -25271,13 +25283,13 @@
         <v>0.06451699293862534</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0361</v>
+        <v>0.0392</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0452</v>
+        <v>0.0485</v>
       </c>
       <c r="I31" t="n">
         <v>-0.2883801272449563</v>
@@ -25352,10 +25364,10 @@
         <v>0.04</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0382</v>
+        <v>0.038</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0446</v>
+        <v>0.0452</v>
       </c>
       <c r="I32" t="n">
         <v>-0.3595756319790634</v>
@@ -25430,10 +25442,10 @@
         <v>0.035</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0299</v>
+        <v>0.0296</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0363</v>
+        <v>0.037</v>
       </c>
       <c r="I33" t="n">
         <v>-0.8008007643330961</v>
